--- a/workbooks/total-data.xlsx
+++ b/workbooks/total-data.xlsx
@@ -8,18 +8,19 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Value &amp; Cost Basis" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portfolio" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Current Prices" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="PORTFOLIO_VALUE">OFFSET('Value &amp; Cost Basis'!$B$2, 0, 0, COUNTA('Value &amp; Cost Basis'!$A:$A) - 1, 1)</definedName>
+  </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="3">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -31,6 +32,13 @@
       <name val="Aptos Narrow"/>
       <b val="1"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -79,11 +87,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -483,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C366"/>
+  <dimension ref="A1:C365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5237,19 +5245,6 @@
         <v>8244.173855677185</v>
       </c>
       <c r="C365" t="n">
-        <v>7095.339999999998</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>04/09/23</t>
-        </is>
-      </c>
-      <c r="B366" t="n">
-        <v>8051.446129869412</v>
-      </c>
-      <c r="C366" t="n">
         <v>7095.339999999998</v>
       </c>
     </row>
@@ -5313,7 +5308,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5345,7 +5339,6 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5377,7 +5370,6 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5409,7 +5401,6 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5441,7 +5432,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5473,7 +5463,6 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5505,7 +5494,6 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5537,7 +5525,6 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5569,7 +5556,6 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5601,7 +5587,6 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5633,7 +5618,6 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5665,7 +5649,6 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5697,7 +5680,6 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5729,7 +5711,6 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5761,7 +5742,6 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5793,7 +5773,6 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5825,7 +5804,6 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5857,7 +5835,6 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5889,7 +5866,6 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5921,7 +5897,6 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5953,7 +5928,6 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -5985,7 +5959,6 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6017,7 +5990,6 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6049,7 +6021,6 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6081,7 +6052,6 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6113,7 +6083,6 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6145,7 +6114,6 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6177,7 +6145,6 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6209,7 +6176,6 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6241,7 +6207,6 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6273,7 +6238,6 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6305,7 +6269,6 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6337,7 +6300,6 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6369,7 +6331,6 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6401,7 +6362,6 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6433,7 +6393,6 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6465,7 +6424,6 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6497,7 +6455,6 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6529,7 +6486,6 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6561,7 +6517,6 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6593,7 +6548,6 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6625,7 +6579,6 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6657,7 +6610,6 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6689,7 +6641,6 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -6721,7 +6672,6 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -6753,7 +6703,6 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -6785,7 +6734,6 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -6817,7 +6765,6 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -6849,7 +6796,6 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -6881,7 +6827,6 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -6913,7 +6858,6 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr"/>
       <c r="B103" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -6945,7 +6889,6 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr"/>
       <c r="B105" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -6977,7 +6920,6 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7009,7 +6951,6 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr"/>
       <c r="B109" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7041,7 +6982,6 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr"/>
       <c r="B111" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7073,7 +7013,6 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7105,7 +7044,6 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7137,7 +7075,6 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7169,7 +7106,6 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7201,7 +7137,6 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7233,7 +7168,6 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7265,7 +7199,6 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7297,7 +7230,6 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7329,7 +7261,6 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr"/>
       <c r="B129" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7361,7 +7292,6 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7393,7 +7323,6 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7425,7 +7354,6 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7457,7 +7385,6 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr"/>
       <c r="B137" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7489,7 +7416,6 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr"/>
       <c r="B139" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7521,7 +7447,6 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr"/>
       <c r="B141" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7553,7 +7478,6 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr"/>
       <c r="B143" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7585,7 +7509,6 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr"/>
       <c r="B145" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7617,7 +7540,6 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr"/>
       <c r="B147" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7649,7 +7571,6 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr"/>
       <c r="B149" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7681,7 +7602,6 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr"/>
       <c r="B151" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7713,7 +7633,6 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7745,7 +7664,6 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr"/>
       <c r="B155" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7777,7 +7695,6 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7809,7 +7726,6 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr"/>
       <c r="B159" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7841,7 +7757,6 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr"/>
       <c r="B161" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7873,7 +7788,6 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr"/>
       <c r="B163" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7905,7 +7819,6 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr"/>
       <c r="B165" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7937,7 +7850,6 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr"/>
       <c r="B167" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -7969,7 +7881,6 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr"/>
       <c r="B169" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8001,7 +7912,6 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr"/>
       <c r="B171" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8033,7 +7943,6 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr"/>
       <c r="B173" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8065,7 +7974,6 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr"/>
       <c r="B175" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8097,7 +8005,6 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr"/>
       <c r="B177" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8129,7 +8036,6 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr"/>
       <c r="B179" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8161,7 +8067,6 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr"/>
       <c r="B181" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8193,7 +8098,6 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr"/>
       <c r="B183" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8225,7 +8129,6 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr"/>
       <c r="B185" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8257,7 +8160,6 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr"/>
       <c r="B187" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8289,7 +8191,6 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr"/>
       <c r="B189" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8321,7 +8222,6 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr"/>
       <c r="B191" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8353,7 +8253,6 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr"/>
       <c r="B193" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8385,7 +8284,6 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr"/>
       <c r="B195" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8417,7 +8315,6 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr"/>
       <c r="B197" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8449,7 +8346,6 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr"/>
       <c r="B199" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8481,7 +8377,6 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr"/>
       <c r="B201" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8513,7 +8408,6 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr"/>
       <c r="B203" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8545,7 +8439,6 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr"/>
       <c r="B205" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8577,7 +8470,6 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr"/>
       <c r="B207" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8609,7 +8501,6 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr"/>
       <c r="B209" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8641,7 +8532,6 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr"/>
       <c r="B211" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8673,7 +8563,6 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr"/>
       <c r="B213" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8705,7 +8594,6 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr"/>
       <c r="B215" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8737,7 +8625,6 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr"/>
       <c r="B217" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8769,7 +8656,6 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr"/>
       <c r="B219" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8801,7 +8687,6 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr"/>
       <c r="B221" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8833,7 +8718,6 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr"/>
       <c r="B223" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8865,7 +8749,6 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr"/>
       <c r="B225" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8897,7 +8780,6 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr"/>
       <c r="B227" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8929,7 +8811,6 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr"/>
       <c r="B229" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8961,7 +8842,6 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr"/>
       <c r="B231" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -8993,7 +8873,6 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr"/>
       <c r="B233" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9025,7 +8904,6 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr"/>
       <c r="B235" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9057,7 +8935,6 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr"/>
       <c r="B237" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9089,7 +8966,6 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr"/>
       <c r="B239" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9121,7 +8997,6 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr"/>
       <c r="B241" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9153,7 +9028,6 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr"/>
       <c r="B243" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9185,7 +9059,6 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr"/>
       <c r="B245" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9217,7 +9090,6 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr"/>
       <c r="B247" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9249,7 +9121,6 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr"/>
       <c r="B249" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9281,7 +9152,6 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr"/>
       <c r="B251" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9313,7 +9183,6 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr"/>
       <c r="B253" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9345,7 +9214,6 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr"/>
       <c r="B255" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9377,7 +9245,6 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr"/>
       <c r="B257" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9409,7 +9276,6 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr"/>
       <c r="B259" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9441,7 +9307,6 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr"/>
       <c r="B261" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9473,7 +9338,6 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr"/>
       <c r="B263" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9505,7 +9369,6 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr"/>
       <c r="B265" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9537,7 +9400,6 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr"/>
       <c r="B267" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9569,7 +9431,6 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr"/>
       <c r="B269" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9601,7 +9462,6 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr"/>
       <c r="B271" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9633,7 +9493,6 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr"/>
       <c r="B273" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9665,7 +9524,6 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr"/>
       <c r="B275" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9697,7 +9555,6 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr"/>
       <c r="B277" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9729,7 +9586,6 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr"/>
       <c r="B279" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9761,7 +9617,6 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr"/>
       <c r="B281" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9793,7 +9648,6 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr"/>
       <c r="B283" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9825,7 +9679,6 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr"/>
       <c r="B285" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9857,7 +9710,6 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr"/>
       <c r="B287" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9889,7 +9741,6 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr"/>
       <c r="B289" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9921,7 +9772,6 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr"/>
       <c r="B291" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9953,7 +9803,6 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr"/>
       <c r="B293" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -9985,7 +9834,6 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr"/>
       <c r="B295" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10017,7 +9865,6 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr"/>
       <c r="B297" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10049,7 +9896,6 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="inlineStr"/>
       <c r="B299" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10081,7 +9927,6 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr"/>
       <c r="B301" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10113,7 +9958,6 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr"/>
       <c r="B303" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10145,7 +9989,6 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr"/>
       <c r="B305" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10177,7 +10020,6 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr"/>
       <c r="B307" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10209,7 +10051,6 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr"/>
       <c r="B309" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10241,7 +10082,6 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr"/>
       <c r="B311" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10273,7 +10113,6 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr"/>
       <c r="B313" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10305,7 +10144,6 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="inlineStr"/>
       <c r="B315" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10337,7 +10175,6 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="inlineStr"/>
       <c r="B317" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10369,7 +10206,6 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr"/>
       <c r="B319" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10401,7 +10237,6 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr"/>
       <c r="B321" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10433,7 +10268,6 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr"/>
       <c r="B323" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10465,7 +10299,6 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr"/>
       <c r="B325" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10497,7 +10330,6 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr"/>
       <c r="B327" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10529,7 +10361,6 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr"/>
       <c r="B329" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10561,7 +10392,6 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr"/>
       <c r="B331" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10593,7 +10423,6 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr"/>
       <c r="B333" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10625,7 +10454,6 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr"/>
       <c r="B335" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10657,7 +10485,6 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr"/>
       <c r="B337" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10689,7 +10516,6 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr"/>
       <c r="B339" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10721,7 +10547,6 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr"/>
       <c r="B341" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10753,7 +10578,6 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr"/>
       <c r="B343" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10785,7 +10609,6 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr"/>
       <c r="B345" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10817,7 +10640,6 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr"/>
       <c r="B347" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10849,7 +10671,6 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr"/>
       <c r="B349" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10881,7 +10702,6 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr"/>
       <c r="B351" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10913,7 +10733,6 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr"/>
       <c r="B353" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10945,7 +10764,6 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr"/>
       <c r="B355" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -10977,7 +10795,6 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="inlineStr"/>
       <c r="B357" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11009,7 +10826,6 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="inlineStr"/>
       <c r="B359" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11041,7 +10857,6 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr"/>
       <c r="B361" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11073,7 +10888,6 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr"/>
       <c r="B363" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11105,7 +10919,6 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr"/>
       <c r="B365" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11137,7 +10950,6 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="inlineStr"/>
       <c r="B367" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11169,7 +10981,6 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr"/>
       <c r="B369" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11201,7 +11012,6 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="inlineStr"/>
       <c r="B371" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11233,7 +11043,6 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="inlineStr"/>
       <c r="B373" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11265,7 +11074,6 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="inlineStr"/>
       <c r="B375" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11297,7 +11105,6 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="inlineStr"/>
       <c r="B377" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11329,7 +11136,6 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="inlineStr"/>
       <c r="B379" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11361,7 +11167,6 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr"/>
       <c r="B381" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11393,7 +11198,6 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="inlineStr"/>
       <c r="B383" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11425,7 +11229,6 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="inlineStr"/>
       <c r="B385" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11457,7 +11260,6 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="inlineStr"/>
       <c r="B387" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11489,7 +11291,6 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="inlineStr"/>
       <c r="B389" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11521,7 +11322,6 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="inlineStr"/>
       <c r="B391" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11553,7 +11353,6 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="inlineStr"/>
       <c r="B393" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11585,7 +11384,6 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="inlineStr"/>
       <c r="B395" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11617,7 +11415,6 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="inlineStr"/>
       <c r="B397" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11649,7 +11446,6 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="inlineStr"/>
       <c r="B399" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11681,7 +11477,6 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="inlineStr"/>
       <c r="B401" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11713,7 +11508,6 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="inlineStr"/>
       <c r="B403" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11745,7 +11539,6 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" t="inlineStr"/>
       <c r="B405" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11777,7 +11570,6 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="inlineStr"/>
       <c r="B407" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11809,7 +11601,6 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="inlineStr"/>
       <c r="B409" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11841,7 +11632,6 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="inlineStr"/>
       <c r="B411" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11873,7 +11663,6 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="inlineStr"/>
       <c r="B413" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11905,7 +11694,6 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="inlineStr"/>
       <c r="B415" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11937,7 +11725,6 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="inlineStr"/>
       <c r="B417" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -11969,7 +11756,6 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="inlineStr"/>
       <c r="B419" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12001,7 +11787,6 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="inlineStr"/>
       <c r="B421" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12033,7 +11818,6 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="inlineStr"/>
       <c r="B423" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12065,7 +11849,6 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" t="inlineStr"/>
       <c r="B425" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12097,7 +11880,6 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="inlineStr"/>
       <c r="B427" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12129,7 +11911,6 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" t="inlineStr"/>
       <c r="B429" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12161,7 +11942,6 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="inlineStr"/>
       <c r="B431" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12193,7 +11973,6 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="inlineStr"/>
       <c r="B433" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12225,7 +12004,6 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="inlineStr"/>
       <c r="B435" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12257,7 +12035,6 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="inlineStr"/>
       <c r="B437" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12289,7 +12066,6 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="inlineStr"/>
       <c r="B439" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12321,7 +12097,6 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="inlineStr"/>
       <c r="B441" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12353,7 +12128,6 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr"/>
       <c r="B443" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12385,7 +12159,6 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="inlineStr"/>
       <c r="B445" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12417,7 +12190,6 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="inlineStr"/>
       <c r="B447" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12449,7 +12221,6 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="inlineStr"/>
       <c r="B449" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12481,7 +12252,6 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="inlineStr"/>
       <c r="B451" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12513,7 +12283,6 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="inlineStr"/>
       <c r="B453" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12545,7 +12314,6 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="inlineStr"/>
       <c r="B455" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12577,7 +12345,6 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="inlineStr"/>
       <c r="B457" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12609,7 +12376,6 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="inlineStr"/>
       <c r="B459" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12641,7 +12407,6 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="inlineStr"/>
       <c r="B461" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12673,7 +12438,6 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="inlineStr"/>
       <c r="B463" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12705,7 +12469,6 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="inlineStr"/>
       <c r="B465" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12737,7 +12500,6 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="inlineStr"/>
       <c r="B467" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12769,7 +12531,6 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr"/>
       <c r="B469" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12801,7 +12562,6 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr"/>
       <c r="B471" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12833,7 +12593,6 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr"/>
       <c r="B473" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12865,7 +12624,6 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr"/>
       <c r="B475" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12897,7 +12655,6 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr"/>
       <c r="B477" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12929,7 +12686,6 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr"/>
       <c r="B479" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12961,7 +12717,6 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr"/>
       <c r="B481" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -12993,7 +12748,6 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="inlineStr"/>
       <c r="B483" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -13025,7 +12779,6 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr"/>
       <c r="B485" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -13057,7 +12810,6 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="inlineStr"/>
       <c r="B487" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -13089,7 +12841,6 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" t="inlineStr"/>
       <c r="B489" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -13103,7 +12854,6 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="inlineStr"/>
       <c r="B490" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -13135,7 +12885,6 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="inlineStr"/>
       <c r="B492" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -13149,7 +12898,6 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="inlineStr"/>
       <c r="B493" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -13181,7 +12929,6 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="inlineStr"/>
       <c r="B495" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -13195,7 +12942,6 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="inlineStr"/>
       <c r="B496" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -13227,7 +12973,6 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" t="inlineStr"/>
       <c r="B498" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -13241,7 +12986,6 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" t="inlineStr"/>
       <c r="B499" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -13273,7 +13017,6 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" t="inlineStr"/>
       <c r="B501" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -13287,7 +13030,6 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" t="inlineStr"/>
       <c r="B502" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -13319,7 +13061,6 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="inlineStr"/>
       <c r="B504" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -13333,7 +13074,6 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" t="inlineStr"/>
       <c r="B505" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -13347,7 +13087,6 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" t="inlineStr"/>
       <c r="B506" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -13379,7 +13118,6 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" t="inlineStr"/>
       <c r="B508" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -13393,7 +13131,6 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" t="inlineStr"/>
       <c r="B509" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -13425,7 +13162,6 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="inlineStr"/>
       <c r="B511" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -13439,7 +13175,6 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" t="inlineStr"/>
       <c r="B512" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -13471,7 +13206,6 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" t="inlineStr"/>
       <c r="B514" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -13485,7 +13219,6 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" t="inlineStr"/>
       <c r="B515" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -13517,7 +13250,6 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" t="inlineStr"/>
       <c r="B517" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -13531,7 +13263,6 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" t="inlineStr"/>
       <c r="B518" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -13563,7 +13294,6 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" t="inlineStr"/>
       <c r="B520" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -13577,7 +13307,6 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" t="inlineStr"/>
       <c r="B521" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -13609,7 +13338,6 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" t="inlineStr"/>
       <c r="B523" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -13623,7 +13351,6 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" t="inlineStr"/>
       <c r="B524" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -13655,7 +13382,6 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" t="inlineStr"/>
       <c r="B526" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -13669,7 +13395,6 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" t="inlineStr"/>
       <c r="B527" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -13701,7 +13426,6 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" t="inlineStr"/>
       <c r="B529" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -13715,7 +13439,6 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" t="inlineStr"/>
       <c r="B530" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -13747,7 +13470,6 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" t="inlineStr"/>
       <c r="B532" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -13761,7 +13483,6 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" t="inlineStr"/>
       <c r="B533" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -13793,7 +13514,6 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" t="inlineStr"/>
       <c r="B535" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -13807,7 +13527,6 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" t="inlineStr"/>
       <c r="B536" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -13839,7 +13558,6 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" t="inlineStr"/>
       <c r="B538" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -13853,7 +13571,6 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" t="inlineStr"/>
       <c r="B539" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -13885,7 +13602,6 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" t="inlineStr"/>
       <c r="B541" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -13899,7 +13615,6 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" t="inlineStr"/>
       <c r="B542" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -13931,7 +13646,6 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" t="inlineStr"/>
       <c r="B544" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -13945,7 +13659,6 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" t="inlineStr"/>
       <c r="B545" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -13977,7 +13690,6 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" t="inlineStr"/>
       <c r="B547" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -13991,7 +13703,6 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" t="inlineStr"/>
       <c r="B548" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -14023,7 +13734,6 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" t="inlineStr"/>
       <c r="B550" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -14037,7 +13747,6 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" t="inlineStr"/>
       <c r="B551" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -14069,7 +13778,6 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" t="inlineStr"/>
       <c r="B553" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -14083,7 +13791,6 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" t="inlineStr"/>
       <c r="B554" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -14115,7 +13822,6 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" t="inlineStr"/>
       <c r="B556" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -14129,7 +13835,6 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" t="inlineStr"/>
       <c r="B557" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -14143,7 +13848,6 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" t="inlineStr"/>
       <c r="B558" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -14157,7 +13861,6 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" t="inlineStr"/>
       <c r="B559" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -14171,7 +13874,6 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" t="inlineStr"/>
       <c r="B560" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -14203,7 +13905,6 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" t="inlineStr"/>
       <c r="B562" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -14217,7 +13918,6 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" t="inlineStr"/>
       <c r="B563" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -14231,7 +13931,6 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" t="inlineStr"/>
       <c r="B564" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -14245,7 +13944,6 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" t="inlineStr"/>
       <c r="B565" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -14259,7 +13957,6 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" t="inlineStr"/>
       <c r="B566" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -14291,7 +13988,6 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" t="inlineStr"/>
       <c r="B568" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -14305,7 +14001,6 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" t="inlineStr"/>
       <c r="B569" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -14319,7 +14014,6 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" t="inlineStr"/>
       <c r="B570" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -14333,7 +14027,6 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" t="inlineStr"/>
       <c r="B571" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -14347,7 +14040,6 @@
       </c>
     </row>
     <row r="572">
-      <c r="A572" t="inlineStr"/>
       <c r="B572" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -14379,7 +14071,6 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" t="inlineStr"/>
       <c r="B574" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -14393,7 +14084,6 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" t="inlineStr"/>
       <c r="B575" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -14407,7 +14097,6 @@
       </c>
     </row>
     <row r="576">
-      <c r="A576" t="inlineStr"/>
       <c r="B576" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -14421,7 +14110,6 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" t="inlineStr"/>
       <c r="B577" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -14435,7 +14123,6 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" t="inlineStr"/>
       <c r="B578" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -14467,7 +14154,6 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" t="inlineStr"/>
       <c r="B580" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -14481,7 +14167,6 @@
       </c>
     </row>
     <row r="581">
-      <c r="A581" t="inlineStr"/>
       <c r="B581" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -14495,7 +14180,6 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" t="inlineStr"/>
       <c r="B582" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -14509,7 +14193,6 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" t="inlineStr"/>
       <c r="B583" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -14523,7 +14206,6 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" t="inlineStr"/>
       <c r="B584" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -14537,7 +14219,6 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" t="inlineStr"/>
       <c r="B585" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -14569,7 +14250,6 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" t="inlineStr"/>
       <c r="B587" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -14583,7 +14263,6 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" t="inlineStr"/>
       <c r="B588" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -14597,7 +14276,6 @@
       </c>
     </row>
     <row r="589">
-      <c r="A589" t="inlineStr"/>
       <c r="B589" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -14611,7 +14289,6 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" t="inlineStr"/>
       <c r="B590" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -14625,7 +14302,6 @@
       </c>
     </row>
     <row r="591">
-      <c r="A591" t="inlineStr"/>
       <c r="B591" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -14639,7 +14315,6 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" t="inlineStr"/>
       <c r="B592" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -14671,7 +14346,6 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" t="inlineStr"/>
       <c r="B594" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -14685,7 +14359,6 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" t="inlineStr"/>
       <c r="B595" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -14699,7 +14372,6 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" t="inlineStr"/>
       <c r="B596" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -14713,7 +14385,6 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" t="inlineStr"/>
       <c r="B597" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -14727,7 +14398,6 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" t="inlineStr"/>
       <c r="B598" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -14741,7 +14411,6 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" t="inlineStr"/>
       <c r="B599" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -14773,7 +14442,6 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" t="inlineStr"/>
       <c r="B601" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -14787,7 +14455,6 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" t="inlineStr"/>
       <c r="B602" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -14801,7 +14468,6 @@
       </c>
     </row>
     <row r="603">
-      <c r="A603" t="inlineStr"/>
       <c r="B603" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -14815,7 +14481,6 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" t="inlineStr"/>
       <c r="B604" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -14829,7 +14494,6 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" t="inlineStr"/>
       <c r="B605" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -14843,7 +14507,6 @@
       </c>
     </row>
     <row r="606">
-      <c r="A606" t="inlineStr"/>
       <c r="B606" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -14875,7 +14538,6 @@
       </c>
     </row>
     <row r="608">
-      <c r="A608" t="inlineStr"/>
       <c r="B608" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -14889,7 +14551,6 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" t="inlineStr"/>
       <c r="B609" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -14903,7 +14564,6 @@
       </c>
     </row>
     <row r="610">
-      <c r="A610" t="inlineStr"/>
       <c r="B610" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -14917,7 +14577,6 @@
       </c>
     </row>
     <row r="611">
-      <c r="A611" t="inlineStr"/>
       <c r="B611" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -14931,7 +14590,6 @@
       </c>
     </row>
     <row r="612">
-      <c r="A612" t="inlineStr"/>
       <c r="B612" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -14945,7 +14603,6 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" t="inlineStr"/>
       <c r="B613" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -14977,7 +14634,6 @@
       </c>
     </row>
     <row r="615">
-      <c r="A615" t="inlineStr"/>
       <c r="B615" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -14991,7 +14647,6 @@
       </c>
     </row>
     <row r="616">
-      <c r="A616" t="inlineStr"/>
       <c r="B616" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -15005,7 +14660,6 @@
       </c>
     </row>
     <row r="617">
-      <c r="A617" t="inlineStr"/>
       <c r="B617" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -15019,7 +14673,6 @@
       </c>
     </row>
     <row r="618">
-      <c r="A618" t="inlineStr"/>
       <c r="B618" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -15033,7 +14686,6 @@
       </c>
     </row>
     <row r="619">
-      <c r="A619" t="inlineStr"/>
       <c r="B619" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -15047,7 +14699,6 @@
       </c>
     </row>
     <row r="620">
-      <c r="A620" t="inlineStr"/>
       <c r="B620" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -15079,7 +14730,6 @@
       </c>
     </row>
     <row r="622">
-      <c r="A622" t="inlineStr"/>
       <c r="B622" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -15093,7 +14743,6 @@
       </c>
     </row>
     <row r="623">
-      <c r="A623" t="inlineStr"/>
       <c r="B623" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -15107,7 +14756,6 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" t="inlineStr"/>
       <c r="B624" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -15121,7 +14769,6 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" t="inlineStr"/>
       <c r="B625" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -15135,7 +14782,6 @@
       </c>
     </row>
     <row r="626">
-      <c r="A626" t="inlineStr"/>
       <c r="B626" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -15149,7 +14795,6 @@
       </c>
     </row>
     <row r="627">
-      <c r="A627" t="inlineStr"/>
       <c r="B627" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -15181,7 +14826,6 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" t="inlineStr"/>
       <c r="B629" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -15195,7 +14839,6 @@
       </c>
     </row>
     <row r="630">
-      <c r="A630" t="inlineStr"/>
       <c r="B630" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -15209,7 +14852,6 @@
       </c>
     </row>
     <row r="631">
-      <c r="A631" t="inlineStr"/>
       <c r="B631" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -15223,7 +14865,6 @@
       </c>
     </row>
     <row r="632">
-      <c r="A632" t="inlineStr"/>
       <c r="B632" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -15237,7 +14878,6 @@
       </c>
     </row>
     <row r="633">
-      <c r="A633" t="inlineStr"/>
       <c r="B633" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -15251,7 +14891,6 @@
       </c>
     </row>
     <row r="634">
-      <c r="A634" t="inlineStr"/>
       <c r="B634" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -15283,7 +14922,6 @@
       </c>
     </row>
     <row r="636">
-      <c r="A636" t="inlineStr"/>
       <c r="B636" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -15297,7 +14935,6 @@
       </c>
     </row>
     <row r="637">
-      <c r="A637" t="inlineStr"/>
       <c r="B637" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -15311,7 +14948,6 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" t="inlineStr"/>
       <c r="B638" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -15325,7 +14961,6 @@
       </c>
     </row>
     <row r="639">
-      <c r="A639" t="inlineStr"/>
       <c r="B639" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -15339,7 +14974,6 @@
       </c>
     </row>
     <row r="640">
-      <c r="A640" t="inlineStr"/>
       <c r="B640" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -15353,7 +14987,6 @@
       </c>
     </row>
     <row r="641">
-      <c r="A641" t="inlineStr"/>
       <c r="B641" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -15385,7 +15018,6 @@
       </c>
     </row>
     <row r="643">
-      <c r="A643" t="inlineStr"/>
       <c r="B643" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -15399,7 +15031,6 @@
       </c>
     </row>
     <row r="644">
-      <c r="A644" t="inlineStr"/>
       <c r="B644" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -15413,7 +15044,6 @@
       </c>
     </row>
     <row r="645">
-      <c r="A645" t="inlineStr"/>
       <c r="B645" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -15427,7 +15057,6 @@
       </c>
     </row>
     <row r="646">
-      <c r="A646" t="inlineStr"/>
       <c r="B646" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -15441,7 +15070,6 @@
       </c>
     </row>
     <row r="647">
-      <c r="A647" t="inlineStr"/>
       <c r="B647" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -15455,7 +15083,6 @@
       </c>
     </row>
     <row r="648">
-      <c r="A648" t="inlineStr"/>
       <c r="B648" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -15487,7 +15114,6 @@
       </c>
     </row>
     <row r="650">
-      <c r="A650" t="inlineStr"/>
       <c r="B650" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -15501,7 +15127,6 @@
       </c>
     </row>
     <row r="651">
-      <c r="A651" t="inlineStr"/>
       <c r="B651" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -15515,7 +15140,6 @@
       </c>
     </row>
     <row r="652">
-      <c r="A652" t="inlineStr"/>
       <c r="B652" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -15529,7 +15153,6 @@
       </c>
     </row>
     <row r="653">
-      <c r="A653" t="inlineStr"/>
       <c r="B653" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -15543,7 +15166,6 @@
       </c>
     </row>
     <row r="654">
-      <c r="A654" t="inlineStr"/>
       <c r="B654" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -15557,7 +15179,6 @@
       </c>
     </row>
     <row r="655">
-      <c r="A655" t="inlineStr"/>
       <c r="B655" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -15589,7 +15210,6 @@
       </c>
     </row>
     <row r="657">
-      <c r="A657" t="inlineStr"/>
       <c r="B657" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -15603,7 +15223,6 @@
       </c>
     </row>
     <row r="658">
-      <c r="A658" t="inlineStr"/>
       <c r="B658" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -15617,7 +15236,6 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" t="inlineStr"/>
       <c r="B659" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -15631,7 +15249,6 @@
       </c>
     </row>
     <row r="660">
-      <c r="A660" t="inlineStr"/>
       <c r="B660" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -15645,7 +15262,6 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" t="inlineStr"/>
       <c r="B661" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -15659,7 +15275,6 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" t="inlineStr"/>
       <c r="B662" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -15691,7 +15306,6 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" t="inlineStr"/>
       <c r="B664" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -15705,7 +15319,6 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" t="inlineStr"/>
       <c r="B665" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -15719,7 +15332,6 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" t="inlineStr"/>
       <c r="B666" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -15733,7 +15345,6 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" t="inlineStr"/>
       <c r="B667" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -15747,7 +15358,6 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" t="inlineStr"/>
       <c r="B668" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -15761,7 +15371,6 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" t="inlineStr"/>
       <c r="B669" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -15793,7 +15402,6 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" t="inlineStr"/>
       <c r="B671" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -15807,7 +15415,6 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" t="inlineStr"/>
       <c r="B672" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -15821,7 +15428,6 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" t="inlineStr"/>
       <c r="B673" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -15835,7 +15441,6 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" t="inlineStr"/>
       <c r="B674" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -15849,7 +15454,6 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" t="inlineStr"/>
       <c r="B675" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -15863,7 +15467,6 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" t="inlineStr"/>
       <c r="B676" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -15895,7 +15498,6 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" t="inlineStr"/>
       <c r="B678" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -15909,7 +15511,6 @@
       </c>
     </row>
     <row r="679">
-      <c r="A679" t="inlineStr"/>
       <c r="B679" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -15923,7 +15524,6 @@
       </c>
     </row>
     <row r="680">
-      <c r="A680" t="inlineStr"/>
       <c r="B680" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -15937,7 +15537,6 @@
       </c>
     </row>
     <row r="681">
-      <c r="A681" t="inlineStr"/>
       <c r="B681" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -15951,7 +15550,6 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" t="inlineStr"/>
       <c r="B682" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -15965,7 +15563,6 @@
       </c>
     </row>
     <row r="683">
-      <c r="A683" t="inlineStr"/>
       <c r="B683" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -15997,7 +15594,6 @@
       </c>
     </row>
     <row r="685">
-      <c r="A685" t="inlineStr"/>
       <c r="B685" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -16011,7 +15607,6 @@
       </c>
     </row>
     <row r="686">
-      <c r="A686" t="inlineStr"/>
       <c r="B686" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -16025,7 +15620,6 @@
       </c>
     </row>
     <row r="687">
-      <c r="A687" t="inlineStr"/>
       <c r="B687" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -16039,7 +15633,6 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" t="inlineStr"/>
       <c r="B688" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -16053,7 +15646,6 @@
       </c>
     </row>
     <row r="689">
-      <c r="A689" t="inlineStr"/>
       <c r="B689" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -16067,7 +15659,6 @@
       </c>
     </row>
     <row r="690">
-      <c r="A690" t="inlineStr"/>
       <c r="B690" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -16099,7 +15690,6 @@
       </c>
     </row>
     <row r="692">
-      <c r="A692" t="inlineStr"/>
       <c r="B692" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -16113,7 +15703,6 @@
       </c>
     </row>
     <row r="693">
-      <c r="A693" t="inlineStr"/>
       <c r="B693" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -16127,7 +15716,6 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" t="inlineStr"/>
       <c r="B694" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -16141,7 +15729,6 @@
       </c>
     </row>
     <row r="695">
-      <c r="A695" t="inlineStr"/>
       <c r="B695" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -16155,7 +15742,6 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" t="inlineStr"/>
       <c r="B696" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -16169,7 +15755,6 @@
       </c>
     </row>
     <row r="697">
-      <c r="A697" t="inlineStr"/>
       <c r="B697" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -16201,7 +15786,6 @@
       </c>
     </row>
     <row r="699">
-      <c r="A699" t="inlineStr"/>
       <c r="B699" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -16215,7 +15799,6 @@
       </c>
     </row>
     <row r="700">
-      <c r="A700" t="inlineStr"/>
       <c r="B700" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -16229,7 +15812,6 @@
       </c>
     </row>
     <row r="701">
-      <c r="A701" t="inlineStr"/>
       <c r="B701" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -16243,7 +15825,6 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" t="inlineStr"/>
       <c r="B702" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -16257,7 +15838,6 @@
       </c>
     </row>
     <row r="703">
-      <c r="A703" t="inlineStr"/>
       <c r="B703" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -16271,7 +15851,6 @@
       </c>
     </row>
     <row r="704">
-      <c r="A704" t="inlineStr"/>
       <c r="B704" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -16303,7 +15882,6 @@
       </c>
     </row>
     <row r="706">
-      <c r="A706" t="inlineStr"/>
       <c r="B706" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -16317,7 +15895,6 @@
       </c>
     </row>
     <row r="707">
-      <c r="A707" t="inlineStr"/>
       <c r="B707" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -16331,7 +15908,6 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" t="inlineStr"/>
       <c r="B708" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -16345,7 +15921,6 @@
       </c>
     </row>
     <row r="709">
-      <c r="A709" t="inlineStr"/>
       <c r="B709" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -16359,7 +15934,6 @@
       </c>
     </row>
     <row r="710">
-      <c r="A710" t="inlineStr"/>
       <c r="B710" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -16373,7 +15947,6 @@
       </c>
     </row>
     <row r="711">
-      <c r="A711" t="inlineStr"/>
       <c r="B711" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -16405,7 +15978,6 @@
       </c>
     </row>
     <row r="713">
-      <c r="A713" t="inlineStr"/>
       <c r="B713" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -16419,7 +15991,6 @@
       </c>
     </row>
     <row r="714">
-      <c r="A714" t="inlineStr"/>
       <c r="B714" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -16433,7 +16004,6 @@
       </c>
     </row>
     <row r="715">
-      <c r="A715" t="inlineStr"/>
       <c r="B715" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -16447,7 +16017,6 @@
       </c>
     </row>
     <row r="716">
-      <c r="A716" t="inlineStr"/>
       <c r="B716" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -16461,7 +16030,6 @@
       </c>
     </row>
     <row r="717">
-      <c r="A717" t="inlineStr"/>
       <c r="B717" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -16475,7 +16043,6 @@
       </c>
     </row>
     <row r="718">
-      <c r="A718" t="inlineStr"/>
       <c r="B718" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -16507,7 +16074,6 @@
       </c>
     </row>
     <row r="720">
-      <c r="A720" t="inlineStr"/>
       <c r="B720" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -16521,7 +16087,6 @@
       </c>
     </row>
     <row r="721">
-      <c r="A721" t="inlineStr"/>
       <c r="B721" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -16535,7 +16100,6 @@
       </c>
     </row>
     <row r="722">
-      <c r="A722" t="inlineStr"/>
       <c r="B722" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -16549,7 +16113,6 @@
       </c>
     </row>
     <row r="723">
-      <c r="A723" t="inlineStr"/>
       <c r="B723" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -16563,7 +16126,6 @@
       </c>
     </row>
     <row r="724">
-      <c r="A724" t="inlineStr"/>
       <c r="B724" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -16577,7 +16139,6 @@
       </c>
     </row>
     <row r="725">
-      <c r="A725" t="inlineStr"/>
       <c r="B725" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -16609,7 +16170,6 @@
       </c>
     </row>
     <row r="727">
-      <c r="A727" t="inlineStr"/>
       <c r="B727" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -16623,7 +16183,6 @@
       </c>
     </row>
     <row r="728">
-      <c r="A728" t="inlineStr"/>
       <c r="B728" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -16637,7 +16196,6 @@
       </c>
     </row>
     <row r="729">
-      <c r="A729" t="inlineStr"/>
       <c r="B729" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -16651,7 +16209,6 @@
       </c>
     </row>
     <row r="730">
-      <c r="A730" t="inlineStr"/>
       <c r="B730" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -16665,7 +16222,6 @@
       </c>
     </row>
     <row r="731">
-      <c r="A731" t="inlineStr"/>
       <c r="B731" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -16679,7 +16235,6 @@
       </c>
     </row>
     <row r="732">
-      <c r="A732" t="inlineStr"/>
       <c r="B732" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -16711,7 +16266,6 @@
       </c>
     </row>
     <row r="734">
-      <c r="A734" t="inlineStr"/>
       <c r="B734" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -16725,7 +16279,6 @@
       </c>
     </row>
     <row r="735">
-      <c r="A735" t="inlineStr"/>
       <c r="B735" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -16739,7 +16292,6 @@
       </c>
     </row>
     <row r="736">
-      <c r="A736" t="inlineStr"/>
       <c r="B736" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -16753,7 +16305,6 @@
       </c>
     </row>
     <row r="737">
-      <c r="A737" t="inlineStr"/>
       <c r="B737" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -16767,7 +16318,6 @@
       </c>
     </row>
     <row r="738">
-      <c r="A738" t="inlineStr"/>
       <c r="B738" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -16781,7 +16331,6 @@
       </c>
     </row>
     <row r="739">
-      <c r="A739" t="inlineStr"/>
       <c r="B739" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -16813,7 +16362,6 @@
       </c>
     </row>
     <row r="741">
-      <c r="A741" t="inlineStr"/>
       <c r="B741" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -16827,7 +16375,6 @@
       </c>
     </row>
     <row r="742">
-      <c r="A742" t="inlineStr"/>
       <c r="B742" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -16841,7 +16388,6 @@
       </c>
     </row>
     <row r="743">
-      <c r="A743" t="inlineStr"/>
       <c r="B743" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -16855,7 +16401,6 @@
       </c>
     </row>
     <row r="744">
-      <c r="A744" t="inlineStr"/>
       <c r="B744" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -16869,7 +16414,6 @@
       </c>
     </row>
     <row r="745">
-      <c r="A745" t="inlineStr"/>
       <c r="B745" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -16883,7 +16427,6 @@
       </c>
     </row>
     <row r="746">
-      <c r="A746" t="inlineStr"/>
       <c r="B746" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -16915,7 +16458,6 @@
       </c>
     </row>
     <row r="748">
-      <c r="A748" t="inlineStr"/>
       <c r="B748" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -16929,7 +16471,6 @@
       </c>
     </row>
     <row r="749">
-      <c r="A749" t="inlineStr"/>
       <c r="B749" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -16943,7 +16484,6 @@
       </c>
     </row>
     <row r="750">
-      <c r="A750" t="inlineStr"/>
       <c r="B750" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -16957,7 +16497,6 @@
       </c>
     </row>
     <row r="751">
-      <c r="A751" t="inlineStr"/>
       <c r="B751" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -16971,7 +16510,6 @@
       </c>
     </row>
     <row r="752">
-      <c r="A752" t="inlineStr"/>
       <c r="B752" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -16985,7 +16523,6 @@
       </c>
     </row>
     <row r="753">
-      <c r="A753" t="inlineStr"/>
       <c r="B753" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -17017,7 +16554,6 @@
       </c>
     </row>
     <row r="755">
-      <c r="A755" t="inlineStr"/>
       <c r="B755" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -17031,7 +16567,6 @@
       </c>
     </row>
     <row r="756">
-      <c r="A756" t="inlineStr"/>
       <c r="B756" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -17045,7 +16580,6 @@
       </c>
     </row>
     <row r="757">
-      <c r="A757" t="inlineStr"/>
       <c r="B757" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -17059,7 +16593,6 @@
       </c>
     </row>
     <row r="758">
-      <c r="A758" t="inlineStr"/>
       <c r="B758" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -17073,7 +16606,6 @@
       </c>
     </row>
     <row r="759">
-      <c r="A759" t="inlineStr"/>
       <c r="B759" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -17087,7 +16619,6 @@
       </c>
     </row>
     <row r="760">
-      <c r="A760" t="inlineStr"/>
       <c r="B760" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -17119,7 +16650,6 @@
       </c>
     </row>
     <row r="762">
-      <c r="A762" t="inlineStr"/>
       <c r="B762" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -17133,7 +16663,6 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" t="inlineStr"/>
       <c r="B763" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -17147,7 +16676,6 @@
       </c>
     </row>
     <row r="764">
-      <c r="A764" t="inlineStr"/>
       <c r="B764" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -17161,7 +16689,6 @@
       </c>
     </row>
     <row r="765">
-      <c r="A765" t="inlineStr"/>
       <c r="B765" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -17175,7 +16702,6 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" t="inlineStr"/>
       <c r="B766" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -17189,7 +16715,6 @@
       </c>
     </row>
     <row r="767">
-      <c r="A767" t="inlineStr"/>
       <c r="B767" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -17221,7 +16746,6 @@
       </c>
     </row>
     <row r="769">
-      <c r="A769" t="inlineStr"/>
       <c r="B769" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -17235,7 +16759,6 @@
       </c>
     </row>
     <row r="770">
-      <c r="A770" t="inlineStr"/>
       <c r="B770" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -17249,7 +16772,6 @@
       </c>
     </row>
     <row r="771">
-      <c r="A771" t="inlineStr"/>
       <c r="B771" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -17263,7 +16785,6 @@
       </c>
     </row>
     <row r="772">
-      <c r="A772" t="inlineStr"/>
       <c r="B772" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -17277,7 +16798,6 @@
       </c>
     </row>
     <row r="773">
-      <c r="A773" t="inlineStr"/>
       <c r="B773" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -17291,7 +16811,6 @@
       </c>
     </row>
     <row r="774">
-      <c r="A774" t="inlineStr"/>
       <c r="B774" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -17323,7 +16842,6 @@
       </c>
     </row>
     <row r="776">
-      <c r="A776" t="inlineStr"/>
       <c r="B776" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -17337,7 +16855,6 @@
       </c>
     </row>
     <row r="777">
-      <c r="A777" t="inlineStr"/>
       <c r="B777" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -17351,7 +16868,6 @@
       </c>
     </row>
     <row r="778">
-      <c r="A778" t="inlineStr"/>
       <c r="B778" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -17365,7 +16881,6 @@
       </c>
     </row>
     <row r="779">
-      <c r="A779" t="inlineStr"/>
       <c r="B779" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -17379,7 +16894,6 @@
       </c>
     </row>
     <row r="780">
-      <c r="A780" t="inlineStr"/>
       <c r="B780" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -17393,7 +16907,6 @@
       </c>
     </row>
     <row r="781">
-      <c r="A781" t="inlineStr"/>
       <c r="B781" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -17425,7 +16938,6 @@
       </c>
     </row>
     <row r="783">
-      <c r="A783" t="inlineStr"/>
       <c r="B783" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -17439,7 +16951,6 @@
       </c>
     </row>
     <row r="784">
-      <c r="A784" t="inlineStr"/>
       <c r="B784" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -17453,7 +16964,6 @@
       </c>
     </row>
     <row r="785">
-      <c r="A785" t="inlineStr"/>
       <c r="B785" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -17467,7 +16977,6 @@
       </c>
     </row>
     <row r="786">
-      <c r="A786" t="inlineStr"/>
       <c r="B786" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -17481,7 +16990,6 @@
       </c>
     </row>
     <row r="787">
-      <c r="A787" t="inlineStr"/>
       <c r="B787" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -17495,7 +17003,6 @@
       </c>
     </row>
     <row r="788">
-      <c r="A788" t="inlineStr"/>
       <c r="B788" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -17527,7 +17034,6 @@
       </c>
     </row>
     <row r="790">
-      <c r="A790" t="inlineStr"/>
       <c r="B790" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -17541,7 +17047,6 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" t="inlineStr"/>
       <c r="B791" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -17555,7 +17060,6 @@
       </c>
     </row>
     <row r="792">
-      <c r="A792" t="inlineStr"/>
       <c r="B792" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -17569,7 +17073,6 @@
       </c>
     </row>
     <row r="793">
-      <c r="A793" t="inlineStr"/>
       <c r="B793" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -17583,7 +17086,6 @@
       </c>
     </row>
     <row r="794">
-      <c r="A794" t="inlineStr"/>
       <c r="B794" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -17597,7 +17099,6 @@
       </c>
     </row>
     <row r="795">
-      <c r="A795" t="inlineStr"/>
       <c r="B795" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -17629,7 +17130,6 @@
       </c>
     </row>
     <row r="797">
-      <c r="A797" t="inlineStr"/>
       <c r="B797" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -17643,7 +17143,6 @@
       </c>
     </row>
     <row r="798">
-      <c r="A798" t="inlineStr"/>
       <c r="B798" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -17657,7 +17156,6 @@
       </c>
     </row>
     <row r="799">
-      <c r="A799" t="inlineStr"/>
       <c r="B799" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -17671,7 +17169,6 @@
       </c>
     </row>
     <row r="800">
-      <c r="A800" t="inlineStr"/>
       <c r="B800" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -17685,7 +17182,6 @@
       </c>
     </row>
     <row r="801">
-      <c r="A801" t="inlineStr"/>
       <c r="B801" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -17699,7 +17195,6 @@
       </c>
     </row>
     <row r="802">
-      <c r="A802" t="inlineStr"/>
       <c r="B802" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -17731,7 +17226,6 @@
       </c>
     </row>
     <row r="804">
-      <c r="A804" t="inlineStr"/>
       <c r="B804" t="inlineStr">
         <is>
           <t>ATOM</t>
@@ -17745,7 +17239,6 @@
       </c>
     </row>
     <row r="805">
-      <c r="A805" t="inlineStr"/>
       <c r="B805" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -17759,7 +17252,6 @@
       </c>
     </row>
     <row r="806">
-      <c r="A806" t="inlineStr"/>
       <c r="B806" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -17773,7 +17265,6 @@
       </c>
     </row>
     <row r="807">
-      <c r="A807" t="inlineStr"/>
       <c r="B807" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -17787,7 +17278,6 @@
       </c>
     </row>
     <row r="808">
-      <c r="A808" t="inlineStr"/>
       <c r="B808" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -17801,7 +17291,6 @@
       </c>
     </row>
     <row r="809">
-      <c r="A809" t="inlineStr"/>
       <c r="B809" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -17833,7 +17322,6 @@
       </c>
     </row>
     <row r="811">
-      <c r="A811" t="inlineStr"/>
       <c r="B811" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -17847,7 +17335,6 @@
       </c>
     </row>
     <row r="812">
-      <c r="A812" t="inlineStr"/>
       <c r="B812" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -17861,7 +17348,6 @@
       </c>
     </row>
     <row r="813">
-      <c r="A813" t="inlineStr"/>
       <c r="B813" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -17875,7 +17361,6 @@
       </c>
     </row>
     <row r="814">
-      <c r="A814" t="inlineStr"/>
       <c r="B814" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -17889,7 +17374,6 @@
       </c>
     </row>
     <row r="815">
-      <c r="A815" t="inlineStr"/>
       <c r="B815" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -17903,7 +17387,6 @@
       </c>
     </row>
     <row r="816">
-      <c r="A816" t="inlineStr"/>
       <c r="B816" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -17935,7 +17418,6 @@
       </c>
     </row>
     <row r="818">
-      <c r="A818" t="inlineStr"/>
       <c r="B818" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -17949,7 +17431,6 @@
       </c>
     </row>
     <row r="819">
-      <c r="A819" t="inlineStr"/>
       <c r="B819" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -17963,7 +17444,6 @@
       </c>
     </row>
     <row r="820">
-      <c r="A820" t="inlineStr"/>
       <c r="B820" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -17977,7 +17457,6 @@
       </c>
     </row>
     <row r="821">
-      <c r="A821" t="inlineStr"/>
       <c r="B821" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -17991,7 +17470,6 @@
       </c>
     </row>
     <row r="822">
-      <c r="A822" t="inlineStr"/>
       <c r="B822" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -18005,7 +17483,6 @@
       </c>
     </row>
     <row r="823">
-      <c r="A823" t="inlineStr"/>
       <c r="B823" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -18037,7 +17514,6 @@
       </c>
     </row>
     <row r="825">
-      <c r="A825" t="inlineStr"/>
       <c r="B825" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -18051,7 +17527,6 @@
       </c>
     </row>
     <row r="826">
-      <c r="A826" t="inlineStr"/>
       <c r="B826" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -18065,7 +17540,6 @@
       </c>
     </row>
     <row r="827">
-      <c r="A827" t="inlineStr"/>
       <c r="B827" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -18079,7 +17553,6 @@
       </c>
     </row>
     <row r="828">
-      <c r="A828" t="inlineStr"/>
       <c r="B828" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -18093,7 +17566,6 @@
       </c>
     </row>
     <row r="829">
-      <c r="A829" t="inlineStr"/>
       <c r="B829" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -18107,7 +17579,6 @@
       </c>
     </row>
     <row r="830">
-      <c r="A830" t="inlineStr"/>
       <c r="B830" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -18139,7 +17610,6 @@
       </c>
     </row>
     <row r="832">
-      <c r="A832" t="inlineStr"/>
       <c r="B832" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -18153,7 +17623,6 @@
       </c>
     </row>
     <row r="833">
-      <c r="A833" t="inlineStr"/>
       <c r="B833" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -18167,7 +17636,6 @@
       </c>
     </row>
     <row r="834">
-      <c r="A834" t="inlineStr"/>
       <c r="B834" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -18181,7 +17649,6 @@
       </c>
     </row>
     <row r="835">
-      <c r="A835" t="inlineStr"/>
       <c r="B835" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -18195,7 +17662,6 @@
       </c>
     </row>
     <row r="836">
-      <c r="A836" t="inlineStr"/>
       <c r="B836" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -18209,7 +17675,6 @@
       </c>
     </row>
     <row r="837">
-      <c r="A837" t="inlineStr"/>
       <c r="B837" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -18241,7 +17706,6 @@
       </c>
     </row>
     <row r="839">
-      <c r="A839" t="inlineStr"/>
       <c r="B839" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -18255,7 +17719,6 @@
       </c>
     </row>
     <row r="840">
-      <c r="A840" t="inlineStr"/>
       <c r="B840" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -18269,7 +17732,6 @@
       </c>
     </row>
     <row r="841">
-      <c r="A841" t="inlineStr"/>
       <c r="B841" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -18283,7 +17745,6 @@
       </c>
     </row>
     <row r="842">
-      <c r="A842" t="inlineStr"/>
       <c r="B842" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -18297,7 +17758,6 @@
       </c>
     </row>
     <row r="843">
-      <c r="A843" t="inlineStr"/>
       <c r="B843" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -18311,7 +17771,6 @@
       </c>
     </row>
     <row r="844">
-      <c r="A844" t="inlineStr"/>
       <c r="B844" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -18343,7 +17802,6 @@
       </c>
     </row>
     <row r="846">
-      <c r="A846" t="inlineStr"/>
       <c r="B846" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -18357,7 +17815,6 @@
       </c>
     </row>
     <row r="847">
-      <c r="A847" t="inlineStr"/>
       <c r="B847" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -18371,7 +17828,6 @@
       </c>
     </row>
     <row r="848">
-      <c r="A848" t="inlineStr"/>
       <c r="B848" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -18385,7 +17841,6 @@
       </c>
     </row>
     <row r="849">
-      <c r="A849" t="inlineStr"/>
       <c r="B849" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -18399,7 +17854,6 @@
       </c>
     </row>
     <row r="850">
-      <c r="A850" t="inlineStr"/>
       <c r="B850" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -18413,7 +17867,6 @@
       </c>
     </row>
     <row r="851">
-      <c r="A851" t="inlineStr"/>
       <c r="B851" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -18445,7 +17898,6 @@
       </c>
     </row>
     <row r="853">
-      <c r="A853" t="inlineStr"/>
       <c r="B853" t="inlineStr">
         <is>
           <t>CSPR</t>
@@ -18459,7 +17911,6 @@
       </c>
     </row>
     <row r="854">
-      <c r="A854" t="inlineStr"/>
       <c r="B854" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -18473,7 +17924,6 @@
       </c>
     </row>
     <row r="855">
-      <c r="A855" t="inlineStr"/>
       <c r="B855" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -18487,7 +17937,6 @@
       </c>
     </row>
     <row r="856">
-      <c r="A856" t="inlineStr"/>
       <c r="B856" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -18501,7 +17950,6 @@
       </c>
     </row>
     <row r="857">
-      <c r="A857" t="inlineStr"/>
       <c r="B857" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -18515,7 +17963,6 @@
       </c>
     </row>
     <row r="858">
-      <c r="A858" t="inlineStr"/>
       <c r="B858" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -18547,7 +17994,6 @@
       </c>
     </row>
     <row r="860">
-      <c r="A860" t="inlineStr"/>
       <c r="B860" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -18561,7 +18007,6 @@
       </c>
     </row>
     <row r="861">
-      <c r="A861" t="inlineStr"/>
       <c r="B861" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -18575,7 +18020,6 @@
       </c>
     </row>
     <row r="862">
-      <c r="A862" t="inlineStr"/>
       <c r="B862" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -18589,7 +18033,6 @@
       </c>
     </row>
     <row r="863">
-      <c r="A863" t="inlineStr"/>
       <c r="B863" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -18621,7 +18064,6 @@
       </c>
     </row>
     <row r="865">
-      <c r="A865" t="inlineStr"/>
       <c r="B865" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -18635,7 +18077,6 @@
       </c>
     </row>
     <row r="866">
-      <c r="A866" t="inlineStr"/>
       <c r="B866" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -18649,7 +18090,6 @@
       </c>
     </row>
     <row r="867">
-      <c r="A867" t="inlineStr"/>
       <c r="B867" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -18663,7 +18103,6 @@
       </c>
     </row>
     <row r="868">
-      <c r="A868" t="inlineStr"/>
       <c r="B868" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -18695,7 +18134,6 @@
       </c>
     </row>
     <row r="870">
-      <c r="A870" t="inlineStr"/>
       <c r="B870" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -18709,7 +18147,6 @@
       </c>
     </row>
     <row r="871">
-      <c r="A871" t="inlineStr"/>
       <c r="B871" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -18723,7 +18160,6 @@
       </c>
     </row>
     <row r="872">
-      <c r="A872" t="inlineStr"/>
       <c r="B872" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -18737,7 +18173,6 @@
       </c>
     </row>
     <row r="873">
-      <c r="A873" t="inlineStr"/>
       <c r="B873" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -18769,7 +18204,6 @@
       </c>
     </row>
     <row r="875">
-      <c r="A875" t="inlineStr"/>
       <c r="B875" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -18783,7 +18217,6 @@
       </c>
     </row>
     <row r="876">
-      <c r="A876" t="inlineStr"/>
       <c r="B876" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -18797,7 +18230,6 @@
       </c>
     </row>
     <row r="877">
-      <c r="A877" t="inlineStr"/>
       <c r="B877" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -18811,7 +18243,6 @@
       </c>
     </row>
     <row r="878">
-      <c r="A878" t="inlineStr"/>
       <c r="B878" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -18843,7 +18274,6 @@
       </c>
     </row>
     <row r="880">
-      <c r="A880" t="inlineStr"/>
       <c r="B880" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -18857,7 +18287,6 @@
       </c>
     </row>
     <row r="881">
-      <c r="A881" t="inlineStr"/>
       <c r="B881" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -18871,7 +18300,6 @@
       </c>
     </row>
     <row r="882">
-      <c r="A882" t="inlineStr"/>
       <c r="B882" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -18885,7 +18313,6 @@
       </c>
     </row>
     <row r="883">
-      <c r="A883" t="inlineStr"/>
       <c r="B883" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -18917,7 +18344,6 @@
       </c>
     </row>
     <row r="885">
-      <c r="A885" t="inlineStr"/>
       <c r="B885" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -18931,7 +18357,6 @@
       </c>
     </row>
     <row r="886">
-      <c r="A886" t="inlineStr"/>
       <c r="B886" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -18945,7 +18370,6 @@
       </c>
     </row>
     <row r="887">
-      <c r="A887" t="inlineStr"/>
       <c r="B887" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -18959,7 +18383,6 @@
       </c>
     </row>
     <row r="888">
-      <c r="A888" t="inlineStr"/>
       <c r="B888" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -18991,7 +18414,6 @@
       </c>
     </row>
     <row r="890">
-      <c r="A890" t="inlineStr"/>
       <c r="B890" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -19005,7 +18427,6 @@
       </c>
     </row>
     <row r="891">
-      <c r="A891" t="inlineStr"/>
       <c r="B891" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -19019,7 +18440,6 @@
       </c>
     </row>
     <row r="892">
-      <c r="A892" t="inlineStr"/>
       <c r="B892" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -19033,7 +18453,6 @@
       </c>
     </row>
     <row r="893">
-      <c r="A893" t="inlineStr"/>
       <c r="B893" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -19065,7 +18484,6 @@
       </c>
     </row>
     <row r="895">
-      <c r="A895" t="inlineStr"/>
       <c r="B895" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -19079,7 +18497,6 @@
       </c>
     </row>
     <row r="896">
-      <c r="A896" t="inlineStr"/>
       <c r="B896" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -19093,7 +18510,6 @@
       </c>
     </row>
     <row r="897">
-      <c r="A897" t="inlineStr"/>
       <c r="B897" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -19107,7 +18523,6 @@
       </c>
     </row>
     <row r="898">
-      <c r="A898" t="inlineStr"/>
       <c r="B898" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -19139,7 +18554,6 @@
       </c>
     </row>
     <row r="900">
-      <c r="A900" t="inlineStr"/>
       <c r="B900" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -19153,7 +18567,6 @@
       </c>
     </row>
     <row r="901">
-      <c r="A901" t="inlineStr"/>
       <c r="B901" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -19167,7 +18580,6 @@
       </c>
     </row>
     <row r="902">
-      <c r="A902" t="inlineStr"/>
       <c r="B902" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -19181,7 +18593,6 @@
       </c>
     </row>
     <row r="903">
-      <c r="A903" t="inlineStr"/>
       <c r="B903" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -19213,7 +18624,6 @@
       </c>
     </row>
     <row r="905">
-      <c r="A905" t="inlineStr"/>
       <c r="B905" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -19227,7 +18637,6 @@
       </c>
     </row>
     <row r="906">
-      <c r="A906" t="inlineStr"/>
       <c r="B906" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -19241,7 +18650,6 @@
       </c>
     </row>
     <row r="907">
-      <c r="A907" t="inlineStr"/>
       <c r="B907" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -19255,7 +18663,6 @@
       </c>
     </row>
     <row r="908">
-      <c r="A908" t="inlineStr"/>
       <c r="B908" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -19287,7 +18694,6 @@
       </c>
     </row>
     <row r="910">
-      <c r="A910" t="inlineStr"/>
       <c r="B910" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -19301,7 +18707,6 @@
       </c>
     </row>
     <row r="911">
-      <c r="A911" t="inlineStr"/>
       <c r="B911" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -19315,7 +18720,6 @@
       </c>
     </row>
     <row r="912">
-      <c r="A912" t="inlineStr"/>
       <c r="B912" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -19329,7 +18733,6 @@
       </c>
     </row>
     <row r="913">
-      <c r="A913" t="inlineStr"/>
       <c r="B913" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -19361,7 +18764,6 @@
       </c>
     </row>
     <row r="915">
-      <c r="A915" t="inlineStr"/>
       <c r="B915" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -19375,7 +18777,6 @@
       </c>
     </row>
     <row r="916">
-      <c r="A916" t="inlineStr"/>
       <c r="B916" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -19389,7 +18790,6 @@
       </c>
     </row>
     <row r="917">
-      <c r="A917" t="inlineStr"/>
       <c r="B917" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -19403,7 +18803,6 @@
       </c>
     </row>
     <row r="918">
-      <c r="A918" t="inlineStr"/>
       <c r="B918" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -19435,7 +18834,6 @@
       </c>
     </row>
     <row r="920">
-      <c r="A920" t="inlineStr"/>
       <c r="B920" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -19449,7 +18847,6 @@
       </c>
     </row>
     <row r="921">
-      <c r="A921" t="inlineStr"/>
       <c r="B921" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -19463,7 +18860,6 @@
       </c>
     </row>
     <row r="922">
-      <c r="A922" t="inlineStr"/>
       <c r="B922" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -19477,7 +18873,6 @@
       </c>
     </row>
     <row r="923">
-      <c r="A923" t="inlineStr"/>
       <c r="B923" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -19509,7 +18904,6 @@
       </c>
     </row>
     <row r="925">
-      <c r="A925" t="inlineStr"/>
       <c r="B925" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -19523,7 +18917,6 @@
       </c>
     </row>
     <row r="926">
-      <c r="A926" t="inlineStr"/>
       <c r="B926" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -19537,7 +18930,6 @@
       </c>
     </row>
     <row r="927">
-      <c r="A927" t="inlineStr"/>
       <c r="B927" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -19551,7 +18943,6 @@
       </c>
     </row>
     <row r="928">
-      <c r="A928" t="inlineStr"/>
       <c r="B928" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -19583,7 +18974,6 @@
       </c>
     </row>
     <row r="930">
-      <c r="A930" t="inlineStr"/>
       <c r="B930" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -19597,7 +18987,6 @@
       </c>
     </row>
     <row r="931">
-      <c r="A931" t="inlineStr"/>
       <c r="B931" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -19611,7 +19000,6 @@
       </c>
     </row>
     <row r="932">
-      <c r="A932" t="inlineStr"/>
       <c r="B932" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -19625,7 +19013,6 @@
       </c>
     </row>
     <row r="933">
-      <c r="A933" t="inlineStr"/>
       <c r="B933" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -19657,7 +19044,6 @@
       </c>
     </row>
     <row r="935">
-      <c r="A935" t="inlineStr"/>
       <c r="B935" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -19671,7 +19057,6 @@
       </c>
     </row>
     <row r="936">
-      <c r="A936" t="inlineStr"/>
       <c r="B936" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -19685,7 +19070,6 @@
       </c>
     </row>
     <row r="937">
-      <c r="A937" t="inlineStr"/>
       <c r="B937" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -19699,7 +19083,6 @@
       </c>
     </row>
     <row r="938">
-      <c r="A938" t="inlineStr"/>
       <c r="B938" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -19731,7 +19114,6 @@
       </c>
     </row>
     <row r="940">
-      <c r="A940" t="inlineStr"/>
       <c r="B940" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -19745,7 +19127,6 @@
       </c>
     </row>
     <row r="941">
-      <c r="A941" t="inlineStr"/>
       <c r="B941" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -19759,7 +19140,6 @@
       </c>
     </row>
     <row r="942">
-      <c r="A942" t="inlineStr"/>
       <c r="B942" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -19773,7 +19153,6 @@
       </c>
     </row>
     <row r="943">
-      <c r="A943" t="inlineStr"/>
       <c r="B943" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -19805,7 +19184,6 @@
       </c>
     </row>
     <row r="945">
-      <c r="A945" t="inlineStr"/>
       <c r="B945" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -19819,7 +19197,6 @@
       </c>
     </row>
     <row r="946">
-      <c r="A946" t="inlineStr"/>
       <c r="B946" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -19833,7 +19210,6 @@
       </c>
     </row>
     <row r="947">
-      <c r="A947" t="inlineStr"/>
       <c r="B947" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -19847,7 +19223,6 @@
       </c>
     </row>
     <row r="948">
-      <c r="A948" t="inlineStr"/>
       <c r="B948" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -19879,7 +19254,6 @@
       </c>
     </row>
     <row r="950">
-      <c r="A950" t="inlineStr"/>
       <c r="B950" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -19893,7 +19267,6 @@
       </c>
     </row>
     <row r="951">
-      <c r="A951" t="inlineStr"/>
       <c r="B951" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -19907,7 +19280,6 @@
       </c>
     </row>
     <row r="952">
-      <c r="A952" t="inlineStr"/>
       <c r="B952" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -19921,7 +19293,6 @@
       </c>
     </row>
     <row r="953">
-      <c r="A953" t="inlineStr"/>
       <c r="B953" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -19953,7 +19324,6 @@
       </c>
     </row>
     <row r="955">
-      <c r="A955" t="inlineStr"/>
       <c r="B955" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -19967,7 +19337,6 @@
       </c>
     </row>
     <row r="956">
-      <c r="A956" t="inlineStr"/>
       <c r="B956" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -19981,7 +19350,6 @@
       </c>
     </row>
     <row r="957">
-      <c r="A957" t="inlineStr"/>
       <c r="B957" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -19995,7 +19363,6 @@
       </c>
     </row>
     <row r="958">
-      <c r="A958" t="inlineStr"/>
       <c r="B958" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -20027,7 +19394,6 @@
       </c>
     </row>
     <row r="960">
-      <c r="A960" t="inlineStr"/>
       <c r="B960" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -20041,7 +19407,6 @@
       </c>
     </row>
     <row r="961">
-      <c r="A961" t="inlineStr"/>
       <c r="B961" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -20055,7 +19420,6 @@
       </c>
     </row>
     <row r="962">
-      <c r="A962" t="inlineStr"/>
       <c r="B962" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -20069,7 +19433,6 @@
       </c>
     </row>
     <row r="963">
-      <c r="A963" t="inlineStr"/>
       <c r="B963" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -20101,7 +19464,6 @@
       </c>
     </row>
     <row r="965">
-      <c r="A965" t="inlineStr"/>
       <c r="B965" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -20115,7 +19477,6 @@
       </c>
     </row>
     <row r="966">
-      <c r="A966" t="inlineStr"/>
       <c r="B966" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -20129,7 +19490,6 @@
       </c>
     </row>
     <row r="967">
-      <c r="A967" t="inlineStr"/>
       <c r="B967" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -20143,7 +19503,6 @@
       </c>
     </row>
     <row r="968">
-      <c r="A968" t="inlineStr"/>
       <c r="B968" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -20175,7 +19534,6 @@
       </c>
     </row>
     <row r="970">
-      <c r="A970" t="inlineStr"/>
       <c r="B970" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -20189,7 +19547,6 @@
       </c>
     </row>
     <row r="971">
-      <c r="A971" t="inlineStr"/>
       <c r="B971" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -20203,7 +19560,6 @@
       </c>
     </row>
     <row r="972">
-      <c r="A972" t="inlineStr"/>
       <c r="B972" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -20217,7 +19573,6 @@
       </c>
     </row>
     <row r="973">
-      <c r="A973" t="inlineStr"/>
       <c r="B973" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -20249,7 +19604,6 @@
       </c>
     </row>
     <row r="975">
-      <c r="A975" t="inlineStr"/>
       <c r="B975" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -20263,7 +19617,6 @@
       </c>
     </row>
     <row r="976">
-      <c r="A976" t="inlineStr"/>
       <c r="B976" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -20277,7 +19630,6 @@
       </c>
     </row>
     <row r="977">
-      <c r="A977" t="inlineStr"/>
       <c r="B977" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -20291,7 +19643,6 @@
       </c>
     </row>
     <row r="978">
-      <c r="A978" t="inlineStr"/>
       <c r="B978" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -20323,7 +19674,6 @@
       </c>
     </row>
     <row r="980">
-      <c r="A980" t="inlineStr"/>
       <c r="B980" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -20337,7 +19687,6 @@
       </c>
     </row>
     <row r="981">
-      <c r="A981" t="inlineStr"/>
       <c r="B981" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -20351,7 +19700,6 @@
       </c>
     </row>
     <row r="982">
-      <c r="A982" t="inlineStr"/>
       <c r="B982" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -20365,7 +19713,6 @@
       </c>
     </row>
     <row r="983">
-      <c r="A983" t="inlineStr"/>
       <c r="B983" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -20397,7 +19744,6 @@
       </c>
     </row>
     <row r="985">
-      <c r="A985" t="inlineStr"/>
       <c r="B985" t="inlineStr">
         <is>
           <t>LINK</t>
@@ -20411,7 +19757,6 @@
       </c>
     </row>
     <row r="986">
-      <c r="A986" t="inlineStr"/>
       <c r="B986" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -20425,7 +19770,6 @@
       </c>
     </row>
     <row r="987">
-      <c r="A987" t="inlineStr"/>
       <c r="B987" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -20439,7 +19783,6 @@
       </c>
     </row>
     <row r="988">
-      <c r="A988" t="inlineStr"/>
       <c r="B988" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -20471,7 +19814,6 @@
       </c>
     </row>
     <row r="990">
-      <c r="A990" t="inlineStr"/>
       <c r="B990" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -20485,7 +19827,6 @@
       </c>
     </row>
     <row r="991">
-      <c r="A991" t="inlineStr"/>
       <c r="B991" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -20499,7 +19840,6 @@
       </c>
     </row>
     <row r="992">
-      <c r="A992" t="inlineStr"/>
       <c r="B992" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -20513,7 +19853,6 @@
       </c>
     </row>
     <row r="993">
-      <c r="A993" t="inlineStr"/>
       <c r="B993" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -20545,7 +19884,6 @@
       </c>
     </row>
     <row r="995">
-      <c r="A995" t="inlineStr"/>
       <c r="B995" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -20559,7 +19897,6 @@
       </c>
     </row>
     <row r="996">
-      <c r="A996" t="inlineStr"/>
       <c r="B996" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -20573,7 +19910,6 @@
       </c>
     </row>
     <row r="997">
-      <c r="A997" t="inlineStr"/>
       <c r="B997" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -20587,7 +19923,6 @@
       </c>
     </row>
     <row r="998">
-      <c r="A998" t="inlineStr"/>
       <c r="B998" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -20619,7 +19954,6 @@
       </c>
     </row>
     <row r="1000">
-      <c r="A1000" t="inlineStr"/>
       <c r="B1000" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -20633,7 +19967,6 @@
       </c>
     </row>
     <row r="1001">
-      <c r="A1001" t="inlineStr"/>
       <c r="B1001" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -20647,7 +19980,6 @@
       </c>
     </row>
     <row r="1002">
-      <c r="A1002" t="inlineStr"/>
       <c r="B1002" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -20661,7 +19993,6 @@
       </c>
     </row>
     <row r="1003">
-      <c r="A1003" t="inlineStr"/>
       <c r="B1003" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -20693,7 +20024,6 @@
       </c>
     </row>
     <row r="1005">
-      <c r="A1005" t="inlineStr"/>
       <c r="B1005" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -20707,7 +20037,6 @@
       </c>
     </row>
     <row r="1006">
-      <c r="A1006" t="inlineStr"/>
       <c r="B1006" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -20721,7 +20050,6 @@
       </c>
     </row>
     <row r="1007">
-      <c r="A1007" t="inlineStr"/>
       <c r="B1007" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -20735,7 +20063,6 @@
       </c>
     </row>
     <row r="1008">
-      <c r="A1008" t="inlineStr"/>
       <c r="B1008" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -20767,7 +20094,6 @@
       </c>
     </row>
     <row r="1010">
-      <c r="A1010" t="inlineStr"/>
       <c r="B1010" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -20781,7 +20107,6 @@
       </c>
     </row>
     <row r="1011">
-      <c r="A1011" t="inlineStr"/>
       <c r="B1011" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -20795,7 +20120,6 @@
       </c>
     </row>
     <row r="1012">
-      <c r="A1012" t="inlineStr"/>
       <c r="B1012" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -20809,7 +20133,6 @@
       </c>
     </row>
     <row r="1013">
-      <c r="A1013" t="inlineStr"/>
       <c r="B1013" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -20841,7 +20164,6 @@
       </c>
     </row>
     <row r="1015">
-      <c r="A1015" t="inlineStr"/>
       <c r="B1015" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -20855,7 +20177,6 @@
       </c>
     </row>
     <row r="1016">
-      <c r="A1016" t="inlineStr"/>
       <c r="B1016" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -20869,7 +20190,6 @@
       </c>
     </row>
     <row r="1017">
-      <c r="A1017" t="inlineStr"/>
       <c r="B1017" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -20883,7 +20203,6 @@
       </c>
     </row>
     <row r="1018">
-      <c r="A1018" t="inlineStr"/>
       <c r="B1018" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -20915,7 +20234,6 @@
       </c>
     </row>
     <row r="1020">
-      <c r="A1020" t="inlineStr"/>
       <c r="B1020" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -20929,7 +20247,6 @@
       </c>
     </row>
     <row r="1021">
-      <c r="A1021" t="inlineStr"/>
       <c r="B1021" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -20943,7 +20260,6 @@
       </c>
     </row>
     <row r="1022">
-      <c r="A1022" t="inlineStr"/>
       <c r="B1022" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -20957,7 +20273,6 @@
       </c>
     </row>
     <row r="1023">
-      <c r="A1023" t="inlineStr"/>
       <c r="B1023" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -20989,7 +20304,6 @@
       </c>
     </row>
     <row r="1025">
-      <c r="A1025" t="inlineStr"/>
       <c r="B1025" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -21003,7 +20317,6 @@
       </c>
     </row>
     <row r="1026">
-      <c r="A1026" t="inlineStr"/>
       <c r="B1026" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -21017,7 +20330,6 @@
       </c>
     </row>
     <row r="1027">
-      <c r="A1027" t="inlineStr"/>
       <c r="B1027" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -21031,7 +20343,6 @@
       </c>
     </row>
     <row r="1028">
-      <c r="A1028" t="inlineStr"/>
       <c r="B1028" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -21063,7 +20374,6 @@
       </c>
     </row>
     <row r="1030">
-      <c r="A1030" t="inlineStr"/>
       <c r="B1030" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -21077,7 +20387,6 @@
       </c>
     </row>
     <row r="1031">
-      <c r="A1031" t="inlineStr"/>
       <c r="B1031" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -21091,7 +20400,6 @@
       </c>
     </row>
     <row r="1032">
-      <c r="A1032" t="inlineStr"/>
       <c r="B1032" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -21105,7 +20413,6 @@
       </c>
     </row>
     <row r="1033">
-      <c r="A1033" t="inlineStr"/>
       <c r="B1033" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -21137,7 +20444,6 @@
       </c>
     </row>
     <row r="1035">
-      <c r="A1035" t="inlineStr"/>
       <c r="B1035" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -21151,7 +20457,6 @@
       </c>
     </row>
     <row r="1036">
-      <c r="A1036" t="inlineStr"/>
       <c r="B1036" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -21165,7 +20470,6 @@
       </c>
     </row>
     <row r="1037">
-      <c r="A1037" t="inlineStr"/>
       <c r="B1037" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -21179,7 +20483,6 @@
       </c>
     </row>
     <row r="1038">
-      <c r="A1038" t="inlineStr"/>
       <c r="B1038" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -21211,7 +20514,6 @@
       </c>
     </row>
     <row r="1040">
-      <c r="A1040" t="inlineStr"/>
       <c r="B1040" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -21225,7 +20527,6 @@
       </c>
     </row>
     <row r="1041">
-      <c r="A1041" t="inlineStr"/>
       <c r="B1041" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -21239,7 +20540,6 @@
       </c>
     </row>
     <row r="1042">
-      <c r="A1042" t="inlineStr"/>
       <c r="B1042" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -21253,7 +20553,6 @@
       </c>
     </row>
     <row r="1043">
-      <c r="A1043" t="inlineStr"/>
       <c r="B1043" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -21285,7 +20584,6 @@
       </c>
     </row>
     <row r="1045">
-      <c r="A1045" t="inlineStr"/>
       <c r="B1045" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -21299,7 +20597,6 @@
       </c>
     </row>
     <row r="1046">
-      <c r="A1046" t="inlineStr"/>
       <c r="B1046" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -21313,7 +20610,6 @@
       </c>
     </row>
     <row r="1047">
-      <c r="A1047" t="inlineStr"/>
       <c r="B1047" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -21327,7 +20623,6 @@
       </c>
     </row>
     <row r="1048">
-      <c r="A1048" t="inlineStr"/>
       <c r="B1048" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -21359,7 +20654,6 @@
       </c>
     </row>
     <row r="1050">
-      <c r="A1050" t="inlineStr"/>
       <c r="B1050" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -21373,7 +20667,6 @@
       </c>
     </row>
     <row r="1051">
-      <c r="A1051" t="inlineStr"/>
       <c r="B1051" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -21387,7 +20680,6 @@
       </c>
     </row>
     <row r="1052">
-      <c r="A1052" t="inlineStr"/>
       <c r="B1052" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -21401,7 +20693,6 @@
       </c>
     </row>
     <row r="1053">
-      <c r="A1053" t="inlineStr"/>
       <c r="B1053" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -21433,7 +20724,6 @@
       </c>
     </row>
     <row r="1055">
-      <c r="A1055" t="inlineStr"/>
       <c r="B1055" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -21447,7 +20737,6 @@
       </c>
     </row>
     <row r="1056">
-      <c r="A1056" t="inlineStr"/>
       <c r="B1056" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -21461,7 +20750,6 @@
       </c>
     </row>
     <row r="1057">
-      <c r="A1057" t="inlineStr"/>
       <c r="B1057" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -21475,7 +20763,6 @@
       </c>
     </row>
     <row r="1058">
-      <c r="A1058" t="inlineStr"/>
       <c r="B1058" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -21507,7 +20794,6 @@
       </c>
     </row>
     <row r="1060">
-      <c r="A1060" t="inlineStr"/>
       <c r="B1060" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -21521,7 +20807,6 @@
       </c>
     </row>
     <row r="1061">
-      <c r="A1061" t="inlineStr"/>
       <c r="B1061" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -21535,7 +20820,6 @@
       </c>
     </row>
     <row r="1062">
-      <c r="A1062" t="inlineStr"/>
       <c r="B1062" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -21549,7 +20833,6 @@
       </c>
     </row>
     <row r="1063">
-      <c r="A1063" t="inlineStr"/>
       <c r="B1063" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -21581,7 +20864,6 @@
       </c>
     </row>
     <row r="1065">
-      <c r="A1065" t="inlineStr"/>
       <c r="B1065" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -21595,7 +20877,6 @@
       </c>
     </row>
     <row r="1066">
-      <c r="A1066" t="inlineStr"/>
       <c r="B1066" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -21609,7 +20890,6 @@
       </c>
     </row>
     <row r="1067">
-      <c r="A1067" t="inlineStr"/>
       <c r="B1067" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -21623,7 +20903,6 @@
       </c>
     </row>
     <row r="1068">
-      <c r="A1068" t="inlineStr"/>
       <c r="B1068" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -21655,7 +20934,6 @@
       </c>
     </row>
     <row r="1070">
-      <c r="A1070" t="inlineStr"/>
       <c r="B1070" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -21669,7 +20947,6 @@
       </c>
     </row>
     <row r="1071">
-      <c r="A1071" t="inlineStr"/>
       <c r="B1071" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -21683,7 +20960,6 @@
       </c>
     </row>
     <row r="1072">
-      <c r="A1072" t="inlineStr"/>
       <c r="B1072" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -21697,7 +20973,6 @@
       </c>
     </row>
     <row r="1073">
-      <c r="A1073" t="inlineStr"/>
       <c r="B1073" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -21729,7 +21004,6 @@
       </c>
     </row>
     <row r="1075">
-      <c r="A1075" t="inlineStr"/>
       <c r="B1075" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -21743,7 +21017,6 @@
       </c>
     </row>
     <row r="1076">
-      <c r="A1076" t="inlineStr"/>
       <c r="B1076" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -21757,7 +21030,6 @@
       </c>
     </row>
     <row r="1077">
-      <c r="A1077" t="inlineStr"/>
       <c r="B1077" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -21771,7 +21043,6 @@
       </c>
     </row>
     <row r="1078">
-      <c r="A1078" t="inlineStr"/>
       <c r="B1078" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -21803,7 +21074,6 @@
       </c>
     </row>
     <row r="1080">
-      <c r="A1080" t="inlineStr"/>
       <c r="B1080" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -21817,7 +21087,6 @@
       </c>
     </row>
     <row r="1081">
-      <c r="A1081" t="inlineStr"/>
       <c r="B1081" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -21831,7 +21100,6 @@
       </c>
     </row>
     <row r="1082">
-      <c r="A1082" t="inlineStr"/>
       <c r="B1082" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -21845,7 +21113,6 @@
       </c>
     </row>
     <row r="1083">
-      <c r="A1083" t="inlineStr"/>
       <c r="B1083" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -21877,7 +21144,6 @@
       </c>
     </row>
     <row r="1085">
-      <c r="A1085" t="inlineStr"/>
       <c r="B1085" t="inlineStr">
         <is>
           <t>XRP</t>
@@ -21891,7 +21157,6 @@
       </c>
     </row>
     <row r="1086">
-      <c r="A1086" t="inlineStr"/>
       <c r="B1086" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -21905,7 +21170,6 @@
       </c>
     </row>
     <row r="1087">
-      <c r="A1087" t="inlineStr"/>
       <c r="B1087" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -21919,7 +21183,6 @@
       </c>
     </row>
     <row r="1088">
-      <c r="A1088" t="inlineStr"/>
       <c r="B1088" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -21951,7 +21214,6 @@
       </c>
     </row>
     <row r="1090">
-      <c r="A1090" t="inlineStr"/>
       <c r="B1090" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -21965,7 +21227,6 @@
       </c>
     </row>
     <row r="1091">
-      <c r="A1091" t="inlineStr"/>
       <c r="B1091" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -21979,7 +21240,6 @@
       </c>
     </row>
     <row r="1092">
-      <c r="A1092" t="inlineStr"/>
       <c r="B1092" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -22011,7 +21271,6 @@
       </c>
     </row>
     <row r="1094">
-      <c r="A1094" t="inlineStr"/>
       <c r="B1094" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -22025,7 +21284,6 @@
       </c>
     </row>
     <row r="1095">
-      <c r="A1095" t="inlineStr"/>
       <c r="B1095" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -22039,7 +21297,6 @@
       </c>
     </row>
     <row r="1096">
-      <c r="A1096" t="inlineStr"/>
       <c r="B1096" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -22071,7 +21328,6 @@
       </c>
     </row>
     <row r="1098">
-      <c r="A1098" t="inlineStr"/>
       <c r="B1098" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -22085,7 +21341,6 @@
       </c>
     </row>
     <row r="1099">
-      <c r="A1099" t="inlineStr"/>
       <c r="B1099" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -22099,7 +21354,6 @@
       </c>
     </row>
     <row r="1100">
-      <c r="A1100" t="inlineStr"/>
       <c r="B1100" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -22131,7 +21385,6 @@
       </c>
     </row>
     <row r="1102">
-      <c r="A1102" t="inlineStr"/>
       <c r="B1102" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -22145,7 +21398,6 @@
       </c>
     </row>
     <row r="1103">
-      <c r="A1103" t="inlineStr"/>
       <c r="B1103" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -22159,7 +21411,6 @@
       </c>
     </row>
     <row r="1104">
-      <c r="A1104" t="inlineStr"/>
       <c r="B1104" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -22191,7 +21442,6 @@
       </c>
     </row>
     <row r="1106">
-      <c r="A1106" t="inlineStr"/>
       <c r="B1106" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -22205,7 +21455,6 @@
       </c>
     </row>
     <row r="1107">
-      <c r="A1107" t="inlineStr"/>
       <c r="B1107" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -22219,7 +21468,6 @@
       </c>
     </row>
     <row r="1108">
-      <c r="A1108" t="inlineStr"/>
       <c r="B1108" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -22251,7 +21499,6 @@
       </c>
     </row>
     <row r="1110">
-      <c r="A1110" t="inlineStr"/>
       <c r="B1110" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -22265,7 +21512,6 @@
       </c>
     </row>
     <row r="1111">
-      <c r="A1111" t="inlineStr"/>
       <c r="B1111" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -22279,7 +21525,6 @@
       </c>
     </row>
     <row r="1112">
-      <c r="A1112" t="inlineStr"/>
       <c r="B1112" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -22311,7 +21556,6 @@
       </c>
     </row>
     <row r="1114">
-      <c r="A1114" t="inlineStr"/>
       <c r="B1114" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -22325,7 +21569,6 @@
       </c>
     </row>
     <row r="1115">
-      <c r="A1115" t="inlineStr"/>
       <c r="B1115" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -22339,7 +21582,6 @@
       </c>
     </row>
     <row r="1116">
-      <c r="A1116" t="inlineStr"/>
       <c r="B1116" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -22371,7 +21613,6 @@
       </c>
     </row>
     <row r="1118">
-      <c r="A1118" t="inlineStr"/>
       <c r="B1118" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -22385,7 +21626,6 @@
       </c>
     </row>
     <row r="1119">
-      <c r="A1119" t="inlineStr"/>
       <c r="B1119" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -22399,7 +21639,6 @@
       </c>
     </row>
     <row r="1120">
-      <c r="A1120" t="inlineStr"/>
       <c r="B1120" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -22431,7 +21670,6 @@
       </c>
     </row>
     <row r="1122">
-      <c r="A1122" t="inlineStr"/>
       <c r="B1122" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -22445,7 +21683,6 @@
       </c>
     </row>
     <row r="1123">
-      <c r="A1123" t="inlineStr"/>
       <c r="B1123" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -22459,7 +21696,6 @@
       </c>
     </row>
     <row r="1124">
-      <c r="A1124" t="inlineStr"/>
       <c r="B1124" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -22491,7 +21727,6 @@
       </c>
     </row>
     <row r="1126">
-      <c r="A1126" t="inlineStr"/>
       <c r="B1126" t="inlineStr">
         <is>
           <t>HBAR</t>
@@ -22505,7 +21740,6 @@
       </c>
     </row>
     <row r="1127">
-      <c r="A1127" t="inlineStr"/>
       <c r="B1127" t="inlineStr">
         <is>
           <t>ADA</t>
@@ -22519,7 +21753,6 @@
       </c>
     </row>
     <row r="1128">
-      <c r="A1128" t="inlineStr"/>
       <c r="B1128" t="inlineStr">
         <is>
           <t>ETH</t>
@@ -22531,6 +21764,493 @@
       <c r="D1128" t="n">
         <v>2687.720657411089</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>04/07/24</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>XRP</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.59172378</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HBAR</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.10484012</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ATOM</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11.03678896</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>177.2172094</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ADA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5841849099999999</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.99804298</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>3651.66343562</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BTC</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>69176.21337498</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CSPR</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.03703619</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DOGE</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.19598901</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LINK</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17.80712615</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ALGO</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.23308677</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.5151467</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>OP</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3.15385917</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FIL</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8.72868804</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>0.13377348</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>XLM</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>QNT</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>119.5226909</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AVAX</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>48.49415305</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MATIC</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.90374342</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GALA</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.06102913</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>0.48794881</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>FIDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>RNDR</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9.664580730000001</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>0.19028357</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NKN</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>0.0107689</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SHPING</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TRAC</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3.96930871</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SUKU</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.11410558</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>FARM</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>92.42947986999999</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GRT</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.33435824</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>POWR</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.37628769</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GODS</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.31239958</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>0.03635119</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ASM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>0.00953567</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>AMP</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ACH</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.03392226</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MDT</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1064712</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>0.03368485</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>COVAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SPELL</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.0011494</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>IDEX</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.08811068</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>IOTX</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.0837864</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>FET</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2.67783088</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ANKR</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.06403569000000001</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CLV</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.10706039</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/workbooks/total-data.xlsx
+++ b/workbooks/total-data.xlsx
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15499.79256592374</v>
+        <v>15846.72661073366</v>
       </c>
       <c r="C2" t="n">
         <v>12084.38</v>
@@ -5335,7 +5335,7 @@
         <v>12273.445639</v>
       </c>
       <c r="D2" t="n">
-        <v>7375.391355284367</v>
+        <v>7589.280446966309</v>
       </c>
     </row>
     <row r="3">
@@ -5348,7 +5348,7 @@
         <v>81520.14529455001</v>
       </c>
       <c r="D3" t="n">
-        <v>8124.401210639377</v>
+        <v>8257.446163767348</v>
       </c>
     </row>
     <row r="4">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68151.49733752001</v>
+        <v>70913.2391512</v>
       </c>
     </row>
     <row r="3">
@@ -21937,7 +21937,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3456.71105052</v>
+        <v>3563.43113707</v>
       </c>
     </row>
     <row r="4">
@@ -21947,7 +21947,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.4500736</v>
+        <v>172.64010102</v>
       </c>
     </row>
     <row r="5">
@@ -21957,7 +21957,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.60305288</v>
+        <v>0.61834962</v>
       </c>
     </row>
     <row r="6">
@@ -21967,7 +21967,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.003758</v>
+        <v>0.99949093</v>
       </c>
     </row>
     <row r="7">
@@ -21977,7 +21977,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.18495618</v>
+        <v>0.19766351</v>
       </c>
     </row>
     <row r="8">
@@ -21987,7 +21987,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.56832611</v>
+        <v>0.5867380800000001</v>
       </c>
     </row>
     <row r="9">
@@ -21997,7 +21997,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>46.03771259</v>
+        <v>46.84048265</v>
       </c>
     </row>
     <row r="10">
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.10208167</v>
+        <v>17.40671795</v>
       </c>
     </row>
     <row r="11">
@@ -22017,7 +22017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.86754421</v>
+        <v>0.88396186</v>
       </c>
     </row>
     <row r="12">
@@ -22027,7 +22027,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.332391680000001</v>
+        <v>8.5253409</v>
       </c>
     </row>
     <row r="13">
@@ -22037,7 +22037,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.61573592</v>
+        <v>10.84413363</v>
       </c>
     </row>
     <row r="14">
@@ -22047,7 +22047,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.43978758</v>
+        <v>1.46256668</v>
       </c>
     </row>
     <row r="15">
@@ -22057,27 +22057,27 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.12740758</v>
+        <v>0.13024068</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RNDR</t>
+          <t>HBAR</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.98756513</v>
+        <v>0.10129332</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>RNDR</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.10014683</v>
+        <v>9.10782049</v>
       </c>
     </row>
     <row r="18">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.31852093</v>
+        <v>0.32215476</v>
       </c>
     </row>
     <row r="19">
@@ -22097,7 +22097,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.99031116</v>
+        <v>3.02552795</v>
       </c>
     </row>
     <row r="20">
@@ -22107,7 +22107,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.48001298</v>
+        <v>2.64157126</v>
       </c>
     </row>
     <row r="21">
@@ -22117,7 +22117,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.05749399</v>
+        <v>0.06011845</v>
       </c>
     </row>
     <row r="22">
@@ -22127,7 +22127,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.22222036</v>
+        <v>0.23007679</v>
       </c>
     </row>
     <row r="23">
@@ -22137,7 +22137,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>114.85446359</v>
+        <v>116.64835414</v>
       </c>
     </row>
     <row r="24">
@@ -22147,7 +22147,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.07661734000000001</v>
+        <v>0.07617235999999999</v>
       </c>
     </row>
     <row r="25">
@@ -22157,7 +22157,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0574323</v>
+        <v>0.05969575</v>
       </c>
     </row>
     <row r="26">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.008822139999999999</v>
+        <v>0.00903178</v>
       </c>
     </row>
     <row r="27">
@@ -22177,7 +22177,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.03542987</v>
+        <v>0.03647589</v>
       </c>
     </row>
     <row r="28">
@@ -22187,7 +22187,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.37379499</v>
+        <v>0.38449204</v>
       </c>
     </row>
     <row r="29">
@@ -22197,7 +22197,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.03278477</v>
+        <v>0.03386861</v>
       </c>
     </row>
     <row r="30">
@@ -22207,7 +22207,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.00109943</v>
+        <v>0.00116182</v>
       </c>
     </row>
     <row r="31">
@@ -22217,37 +22217,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1756553</v>
+        <v>0.17793724</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CLV</t>
+          <t>TRAC</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.10010413</v>
+        <v>4.17479172</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GODS</t>
+          <t>CLV</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.28158107</v>
+        <v>0.10572851</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TRAC</t>
+          <t>GODS</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.75985225</v>
+        <v>0.29279337</v>
       </c>
     </row>
     <row r="35">
@@ -22257,7 +22257,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.08436183999999999</v>
+        <v>0.08835073</v>
       </c>
     </row>
     <row r="36">
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>100.43664246</v>
+        <v>105.26056</v>
       </c>
     </row>
     <row r="37">
@@ -22277,7 +22277,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.10127998</v>
+        <v>0.10661435</v>
       </c>
     </row>
     <row r="38">
@@ -22287,7 +22287,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.44468181</v>
+        <v>0.46123181</v>
       </c>
     </row>
     <row r="39">
@@ -22297,7 +22297,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.25747821</v>
+        <v>0.24116024</v>
       </c>
     </row>
     <row r="40">
@@ -22307,7 +22307,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.02910634</v>
+        <v>0.03041209</v>
       </c>
     </row>
     <row r="41">
@@ -22317,7 +22317,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0349178</v>
+        <v>0.03870927</v>
       </c>
     </row>
     <row r="42">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01073422</v>
+        <v>0.01216481</v>
       </c>
     </row>
   </sheetData>

--- a/workbooks/total-data.xlsx
+++ b/workbooks/total-data.xlsx
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70913.2391512</v>
+        <v>70821.43589851</v>
       </c>
     </row>
     <row r="3">
@@ -21937,7 +21937,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3563.43113707</v>
+        <v>3560.3747093</v>
       </c>
     </row>
     <row r="4">
@@ -21947,7 +21947,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.64010102</v>
+        <v>172.47016777</v>
       </c>
     </row>
     <row r="5">
@@ -21957,7 +21957,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.61834962</v>
+        <v>0.6139202499999999</v>
       </c>
     </row>
     <row r="6">
@@ -21967,7 +21967,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.99949093</v>
+        <v>1.00109421</v>
       </c>
     </row>
     <row r="7">
@@ -21977,7 +21977,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.19766351</v>
+        <v>0.19458112</v>
       </c>
     </row>
     <row r="8">
@@ -21987,7 +21987,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5867380800000001</v>
+        <v>0.58759816</v>
       </c>
     </row>
     <row r="9">
@@ -21997,7 +21997,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>46.84048265</v>
+        <v>46.46327972</v>
       </c>
     </row>
     <row r="10">
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.40671795</v>
+        <v>17.36079088</v>
       </c>
     </row>
     <row r="11">
@@ -22017,7 +22017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.88396186</v>
+        <v>0.88029062</v>
       </c>
     </row>
     <row r="12">
@@ -22027,7 +22027,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.5253409</v>
+        <v>8.233411090000001</v>
       </c>
     </row>
     <row r="13">
@@ -22037,7 +22037,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.84413363</v>
+        <v>10.75846816</v>
       </c>
     </row>
     <row r="14">
@@ -22047,7 +22047,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.46256668</v>
+        <v>1.45154211</v>
       </c>
     </row>
     <row r="15">
@@ -22057,7 +22057,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.13024068</v>
+        <v>0.13015978</v>
       </c>
     </row>
     <row r="16">
@@ -22067,7 +22067,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.10129332</v>
+        <v>0.10069435</v>
       </c>
     </row>
     <row r="17">
@@ -22077,27 +22077,27 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.10782049</v>
+        <v>9.07820976</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.32215476</v>
+        <v>2.9919456</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.02552795</v>
+        <v>0.31789509</v>
       </c>
     </row>
     <row r="20">
@@ -22107,7 +22107,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.64157126</v>
+        <v>2.59994953</v>
       </c>
     </row>
     <row r="21">
@@ -22117,7 +22117,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.06011845</v>
+        <v>0.05915634</v>
       </c>
     </row>
     <row r="22">
@@ -22127,7 +22127,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.23007679</v>
+        <v>0.23171845</v>
       </c>
     </row>
     <row r="23">
@@ -22137,7 +22137,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>116.64835414</v>
+        <v>115.75066594</v>
       </c>
     </row>
     <row r="24">
@@ -22147,7 +22147,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.07617235999999999</v>
+        <v>0.07573268</v>
       </c>
     </row>
     <row r="25">
@@ -22157,7 +22157,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.05969575</v>
+        <v>0.05956923</v>
       </c>
     </row>
     <row r="26">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.00903178</v>
+        <v>0.009106299999999999</v>
       </c>
     </row>
     <row r="27">
@@ -22177,7 +22177,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.03647589</v>
+        <v>0.03603146</v>
       </c>
     </row>
     <row r="28">
@@ -22187,27 +22187,27 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.38449204</v>
+        <v>0.39326947</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ACH</t>
+          <t>SPELL</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.03386861</v>
+        <v>0.00121699</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SPELL</t>
+          <t>ACH</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.00116182</v>
+        <v>0.03374404</v>
       </c>
     </row>
     <row r="31">
@@ -22217,37 +22217,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.17793724</v>
+        <v>0.18211333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TRAC</t>
+          <t>CLV</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.17479172</v>
+        <v>0.10456288</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CLV</t>
+          <t>GODS</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.10572851</v>
+        <v>0.2945233</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GODS</t>
+          <t>TRAC</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.29279337</v>
+        <v>3.85203557</v>
       </c>
     </row>
     <row r="35">
@@ -22257,17 +22257,17 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.08835073</v>
+        <v>0.08714183</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FARM</t>
+          <t>SUKU</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>105.26056</v>
+        <v>0.27812292</v>
       </c>
     </row>
     <row r="37">
@@ -22277,27 +22277,27 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.10661435</v>
+        <v>0.10566748</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FIDA</t>
+          <t>FARM</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.46123181</v>
+        <v>93.10809872</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SUKU</t>
+          <t>FIDA</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.24116024</v>
+        <v>0.45343704</v>
       </c>
     </row>
     <row r="40">
@@ -22307,7 +22307,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.03041209</v>
+        <v>0.02936745</v>
       </c>
     </row>
     <row r="41">
@@ -22317,7 +22317,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.03870927</v>
+        <v>0.03724248</v>
       </c>
     </row>
     <row r="42">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01216481</v>
+        <v>0.01103437</v>
       </c>
     </row>
   </sheetData>

--- a/workbooks/total-data.xlsx
+++ b/workbooks/total-data.xlsx
@@ -520,13 +520,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14941.63677217608</v>
+        <v>15186.05328052379</v>
       </c>
       <c r="C2" t="n">
-        <v>12084.38</v>
+        <v>12079.17</v>
       </c>
       <c r="D2" t="n">
-        <v>2857.256772176077</v>
+        <v>3106.883280523789</v>
       </c>
     </row>
     <row r="3">
@@ -6710,10 +6710,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12273.445639</v>
+        <v>12273.445617</v>
       </c>
       <c r="D2" t="n">
-        <v>6330.373612995512</v>
+        <v>6381.763009384598</v>
       </c>
     </row>
     <row r="3">
@@ -6724,10 +6724,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>81520.14529455001</v>
+        <v>81520.14192350999</v>
       </c>
       <c r="D3" t="n">
-        <v>8611.263159180566</v>
+        <v>8804.290271139191</v>
       </c>
     </row>
     <row r="4">
@@ -23866,7 +23866,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63017.65505126</v>
+        <v>63164.76170178</v>
       </c>
     </row>
     <row r="3">
@@ -23876,7 +23876,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3148.4857381</v>
+        <v>3253.81204675</v>
       </c>
     </row>
     <row r="4">
@@ -23886,7 +23886,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.08003782</v>
+        <v>140.89635051</v>
       </c>
     </row>
     <row r="5">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.00003266</v>
+        <v>0.99991076</v>
       </c>
     </row>
     <row r="6">
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.51577803</v>
+        <v>0.51996507</v>
       </c>
     </row>
     <row r="7">
@@ -23916,7 +23916,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.14598844</v>
+        <v>0.14776555</v>
       </c>
     </row>
     <row r="8">
@@ -23926,7 +23926,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.45790898</v>
+        <v>0.46546252</v>
       </c>
     </row>
     <row r="9">
@@ -23936,7 +23936,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34.17434388</v>
+        <v>34.50807569</v>
       </c>
     </row>
     <row r="10">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.01377903</v>
+        <v>14.16075627</v>
       </c>
     </row>
     <row r="11">
@@ -23956,7 +23956,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7017324</v>
+        <v>0.72510961</v>
       </c>
     </row>
     <row r="12">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.10563356</v>
+        <v>0.10800141</v>
       </c>
     </row>
     <row r="13">
@@ -23976,7 +23976,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.11299196</v>
+        <v>0.11437303</v>
       </c>
     </row>
     <row r="14">
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.272547019999999</v>
+        <v>8.386455</v>
       </c>
     </row>
     <row r="15">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.80303413</v>
+        <v>5.89540389</v>
       </c>
     </row>
     <row r="16">
@@ -24006,7 +24006,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.94545074</v>
+        <v>8.095202430000001</v>
       </c>
     </row>
     <row r="17">
@@ -24016,27 +24016,27 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.05183315</v>
+        <v>1.10746242</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2610384</v>
+        <v>2.59484989</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.32741527</v>
+        <v>0.26852078</v>
       </c>
     </row>
     <row r="20">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.1289026</v>
+        <v>2.16369739</v>
       </c>
     </row>
     <row r="21">
@@ -24056,7 +24056,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1978227</v>
+        <v>0.19901817</v>
       </c>
     </row>
     <row r="22">
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.04476941</v>
+        <v>0.04578307</v>
       </c>
     </row>
     <row r="23">
@@ -24076,7 +24076,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>102.79374032</v>
+        <v>105.12392716</v>
       </c>
     </row>
     <row r="24">
@@ -24086,7 +24086,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.058904</v>
+        <v>0.06045804</v>
       </c>
     </row>
     <row r="25">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.05093983</v>
+        <v>0.05201853</v>
       </c>
     </row>
     <row r="26">
@@ -24106,7 +24106,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.00713157</v>
+        <v>0.007256</v>
       </c>
     </row>
     <row r="27">
@@ -24116,27 +24116,27 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.03023977</v>
+        <v>0.03046999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>POWR</t>
+          <t>ACH</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.33980095</v>
+        <v>0.03476469</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ACH</t>
+          <t>POWR</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.03446805</v>
+        <v>0.32336574</v>
       </c>
     </row>
     <row r="30">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.00089297</v>
+        <v>0.00091627</v>
       </c>
     </row>
     <row r="31">
@@ -24156,27 +24156,27 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1224239</v>
+        <v>0.12391308</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GODS</t>
+          <t>CLV</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.23327685</v>
+        <v>0.07912629</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CLV</t>
+          <t>GODS</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.07739788</v>
+        <v>0.21826271</v>
       </c>
     </row>
     <row r="34">
@@ -24186,7 +24186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>83.06975777</v>
+        <v>83.72847892</v>
       </c>
     </row>
     <row r="35">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.06243347</v>
+        <v>0.06412136</v>
       </c>
     </row>
     <row r="36">
@@ -24206,7 +24206,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.07436617</v>
+        <v>0.07657082</v>
       </c>
     </row>
     <row r="37">
@@ -24216,7 +24216,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.10022192</v>
+        <v>2.11940339</v>
       </c>
     </row>
     <row r="38">
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.31142592</v>
+        <v>0.31579609</v>
       </c>
     </row>
     <row r="39">
@@ -24236,7 +24236,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02356918</v>
+        <v>0.02342404</v>
       </c>
     </row>
     <row r="40">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.16059837</v>
+        <v>0.16291502</v>
       </c>
     </row>
     <row r="41">
@@ -24256,7 +24256,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.008719019999999999</v>
+        <v>0.008750259999999999</v>
       </c>
     </row>
     <row r="42">
@@ -24266,7 +24266,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.03282288</v>
+        <v>0.03343785</v>
       </c>
     </row>
   </sheetData>
